--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4577,28 +4577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4993.551963229004</v>
+        <v>5149.598544588574</v>
       </c>
       <c r="AB2" t="n">
-        <v>6832.39809605494</v>
+        <v>7045.907912960416</v>
       </c>
       <c r="AC2" t="n">
-        <v>6180.323611098152</v>
+        <v>6373.456350741071</v>
       </c>
       <c r="AD2" t="n">
-        <v>4993551.963229004</v>
+        <v>5149598.544588573</v>
       </c>
       <c r="AE2" t="n">
-        <v>6832398.09605494</v>
+        <v>7045907.912960416</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.260667956943446e-07</v>
+        <v>1.227451942797424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.90416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6180323.611098153</v>
+        <v>6373456.350741072</v>
       </c>
     </row>
     <row r="3">
@@ -4683,28 +4683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1694.597537072566</v>
+        <v>1777.828069854641</v>
       </c>
       <c r="AB3" t="n">
-        <v>2318.623110589699</v>
+        <v>2432.502797414092</v>
       </c>
       <c r="AC3" t="n">
-        <v>2097.336975122991</v>
+        <v>2200.348144468009</v>
       </c>
       <c r="AD3" t="n">
-        <v>1694597.537072566</v>
+        <v>1777828.069854641</v>
       </c>
       <c r="AE3" t="n">
-        <v>2318623.110589698</v>
+        <v>2432502.797414092</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.361247593052829e-06</v>
+        <v>2.301256595990108e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.88472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>2097336.975122991</v>
+        <v>2200348.144468009</v>
       </c>
     </row>
     <row r="4">
@@ -4789,28 +4789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1305.491565036938</v>
+        <v>1378.307613614432</v>
       </c>
       <c r="AB4" t="n">
-        <v>1786.231153506591</v>
+        <v>1885.861283587661</v>
       </c>
       <c r="AC4" t="n">
-        <v>1615.755759207091</v>
+        <v>1705.877329504989</v>
       </c>
       <c r="AD4" t="n">
-        <v>1305491.565036938</v>
+        <v>1378307.613614432</v>
       </c>
       <c r="AE4" t="n">
-        <v>1786231.153506591</v>
+        <v>1885861.283587661</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.595537983626491e-06</v>
+        <v>2.697336125854014e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.69861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1615755.759207091</v>
+        <v>1705877.329504989</v>
       </c>
     </row>
     <row r="5">
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1151.537913719244</v>
+        <v>1214.02481894673</v>
       </c>
       <c r="AB5" t="n">
-        <v>1575.58497581798</v>
+        <v>1661.082316277923</v>
       </c>
       <c r="AC5" t="n">
-        <v>1425.213357073313</v>
+        <v>1502.550951356031</v>
       </c>
       <c r="AD5" t="n">
-        <v>1151537.913719245</v>
+        <v>1214024.81894673</v>
       </c>
       <c r="AE5" t="n">
-        <v>1575584.97581798</v>
+        <v>1661082.316277923</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.718372671586033e-06</v>
+        <v>2.904994260440197e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.79166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1425213.357073313</v>
+        <v>1502550.951356031</v>
       </c>
     </row>
     <row r="6">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1070.125868765973</v>
+        <v>1132.442181792866</v>
       </c>
       <c r="AB6" t="n">
-        <v>1464.193424266976</v>
+        <v>1549.457352952072</v>
       </c>
       <c r="AC6" t="n">
-        <v>1324.452858863312</v>
+        <v>1401.579317863379</v>
       </c>
       <c r="AD6" t="n">
-        <v>1070125.868765973</v>
+        <v>1132442.181792866</v>
       </c>
       <c r="AE6" t="n">
-        <v>1464193.424266976</v>
+        <v>1549457.352952072</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.796129071446408e-06</v>
+        <v>3.036445312381332e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.28055555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1324452.858863313</v>
+        <v>1401579.317863379</v>
       </c>
     </row>
     <row r="7">
@@ -5107,28 +5107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1006.585917040037</v>
+        <v>1068.98748141295</v>
       </c>
       <c r="AB7" t="n">
-        <v>1377.255259130719</v>
+        <v>1462.635832468465</v>
       </c>
       <c r="AC7" t="n">
-        <v>1245.811950189179</v>
+        <v>1323.043921439957</v>
       </c>
       <c r="AD7" t="n">
-        <v>1006585.917040037</v>
+        <v>1068987.48141295</v>
       </c>
       <c r="AE7" t="n">
-        <v>1377255.259130719</v>
+        <v>1462635.832468465</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.84893923420336e-06</v>
+        <v>3.125723512761615e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.95833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1245811.950189179</v>
+        <v>1323043.921439957</v>
       </c>
     </row>
     <row r="8">
@@ -5213,28 +5213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>968.8802400232298</v>
+        <v>1031.281804396143</v>
       </c>
       <c r="AB8" t="n">
-        <v>1325.664688379255</v>
+        <v>1411.045261717001</v>
       </c>
       <c r="AC8" t="n">
-        <v>1199.145111102414</v>
+        <v>1276.377082353192</v>
       </c>
       <c r="AD8" t="n">
-        <v>968880.2400232299</v>
+        <v>1031281.804396143</v>
       </c>
       <c r="AE8" t="n">
-        <v>1325664.688379255</v>
+        <v>1411045.261717001</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.885556225507214e-06</v>
+        <v>3.187626353356783e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.74583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1199145.111102414</v>
+        <v>1276377.082353192</v>
       </c>
     </row>
     <row r="9">
@@ -5319,28 +5319,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>937.3155421673217</v>
+        <v>999.7171065402351</v>
       </c>
       <c r="AB9" t="n">
-        <v>1282.476476236612</v>
+        <v>1367.857049574358</v>
       </c>
       <c r="AC9" t="n">
-        <v>1160.078721311629</v>
+        <v>1237.310692562407</v>
       </c>
       <c r="AD9" t="n">
-        <v>937315.5421673218</v>
+        <v>999717.1065402351</v>
       </c>
       <c r="AE9" t="n">
-        <v>1282476.476236612</v>
+        <v>1367857.049574358</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.915608417573325e-06</v>
+        <v>3.238431075120149e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.57777777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1160078.721311629</v>
+        <v>1237310.692562407</v>
       </c>
     </row>
     <row r="10">
@@ -5425,28 +5425,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>911.1608536996752</v>
+        <v>963.1480233765589</v>
       </c>
       <c r="AB10" t="n">
-        <v>1246.690477611759</v>
+        <v>1317.821616675729</v>
       </c>
       <c r="AC10" t="n">
-        <v>1127.708088169566</v>
+        <v>1192.050571154452</v>
       </c>
       <c r="AD10" t="n">
-        <v>911160.8536996752</v>
+        <v>963148.0233765589</v>
       </c>
       <c r="AE10" t="n">
-        <v>1246690.477611759</v>
+        <v>1317821.616675729</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.937928734981651e-06</v>
+        <v>3.276164679148279e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.45555555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>1127708.088169566</v>
+        <v>1192050.571154452</v>
       </c>
     </row>
     <row r="11">
@@ -5531,28 +5531,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>888.9820151963856</v>
+        <v>940.9691848732692</v>
       </c>
       <c r="AB11" t="n">
-        <v>1216.344412310259</v>
+        <v>1287.47555137423</v>
       </c>
       <c r="AC11" t="n">
-        <v>1100.258208749472</v>
+        <v>1164.600691734358</v>
       </c>
       <c r="AD11" t="n">
-        <v>888982.0151963857</v>
+        <v>940969.1848732692</v>
       </c>
       <c r="AE11" t="n">
-        <v>1216344.412310259</v>
+        <v>1287475.55137423</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.956601941702341e-06</v>
+        <v>3.307732661603186e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.35555555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>1100258.208749472</v>
+        <v>1164600.691734358</v>
       </c>
     </row>
     <row r="12">
@@ -5637,28 +5637,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>866.0831992935706</v>
+        <v>918.070368970454</v>
       </c>
       <c r="AB12" t="n">
-        <v>1185.013242167568</v>
+        <v>1256.144381231539</v>
       </c>
       <c r="AC12" t="n">
-        <v>1071.917241511626</v>
+        <v>1136.259724496512</v>
       </c>
       <c r="AD12" t="n">
-        <v>866083.1992935706</v>
+        <v>918070.368970454</v>
       </c>
       <c r="AE12" t="n">
-        <v>1185013.242167568</v>
+        <v>1256144.381231538</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.97119038445288e-06</v>
+        <v>3.332395147896081e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.27916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1071917.241511626</v>
+        <v>1136259.724496512</v>
       </c>
     </row>
     <row r="13">
@@ -5743,28 +5743,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>846.7247756327025</v>
+        <v>898.7119453095859</v>
       </c>
       <c r="AB13" t="n">
-        <v>1158.526192881391</v>
+        <v>1229.657331945361</v>
       </c>
       <c r="AC13" t="n">
-        <v>1047.958079034514</v>
+        <v>1112.3005620194</v>
       </c>
       <c r="AD13" t="n">
-        <v>846724.7756327025</v>
+        <v>898711.9453095859</v>
       </c>
       <c r="AE13" t="n">
-        <v>1158526.192881391</v>
+        <v>1229657.331945361</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.986216480485936e-06</v>
+        <v>3.357797508777764e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.20138888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>1047958.079034514</v>
+        <v>1112300.5620194</v>
       </c>
     </row>
     <row r="14">
@@ -5849,28 +5849,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>829.2913278464852</v>
+        <v>881.2784975233689</v>
       </c>
       <c r="AB14" t="n">
-        <v>1134.672980510853</v>
+        <v>1205.804119574824</v>
       </c>
       <c r="AC14" t="n">
-        <v>1026.381383774427</v>
+        <v>1090.723866759313</v>
       </c>
       <c r="AD14" t="n">
-        <v>829291.3278464852</v>
+        <v>881278.4975233688</v>
       </c>
       <c r="AE14" t="n">
-        <v>1134672.980510853</v>
+        <v>1205804.119574824</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.997595465831357e-06</v>
+        <v>3.377034248086223e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.14305555555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>1026381.383774427</v>
+        <v>1090723.866759313</v>
       </c>
     </row>
     <row r="15">
@@ -5955,28 +5955,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>815.5629726944597</v>
+        <v>867.5501423713432</v>
       </c>
       <c r="AB15" t="n">
-        <v>1115.889239339567</v>
+        <v>1187.020378403538</v>
       </c>
       <c r="AC15" t="n">
-        <v>1009.390336497382</v>
+        <v>1073.732819482268</v>
       </c>
       <c r="AD15" t="n">
-        <v>815562.9726944597</v>
+        <v>867550.1423713432</v>
       </c>
       <c r="AE15" t="n">
-        <v>1115889.239339567</v>
+        <v>1187020.378403538</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.003868496214088e-06</v>
+        <v>3.387639117192168e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.11111111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>1009390.336497382</v>
+        <v>1073732.819482268</v>
       </c>
     </row>
     <row r="16">
@@ -6061,28 +6061,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>809.3431565179952</v>
+        <v>861.3303261948787</v>
       </c>
       <c r="AB16" t="n">
-        <v>1107.379012448005</v>
+        <v>1178.510151511976</v>
       </c>
       <c r="AC16" t="n">
-        <v>1001.692313716172</v>
+        <v>1066.034796701058</v>
       </c>
       <c r="AD16" t="n">
-        <v>809343.1565179952</v>
+        <v>861330.3261948787</v>
       </c>
       <c r="AE16" t="n">
-        <v>1107379.012448005</v>
+        <v>1178510.151511976</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.009120335604283e-06</v>
+        <v>3.396517612257611e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.08472222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>1001692.313716172</v>
+        <v>1066034.796701058</v>
       </c>
     </row>
     <row r="17">
@@ -6167,28 +6167,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>812.7761019937998</v>
+        <v>864.7632716706833</v>
       </c>
       <c r="AB17" t="n">
-        <v>1112.076119898867</v>
+        <v>1183.207258962837</v>
       </c>
       <c r="AC17" t="n">
-        <v>1005.941135824355</v>
+        <v>1070.283618809241</v>
       </c>
       <c r="AD17" t="n">
-        <v>812776.1019937998</v>
+        <v>864763.2716706833</v>
       </c>
       <c r="AE17" t="n">
-        <v>1112076.119898867</v>
+        <v>1183207.258962837</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.008974451176777e-06</v>
+        <v>3.396270987394681e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.08611111111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>1005941.135824355</v>
+        <v>1070283.618809241</v>
       </c>
     </row>
   </sheetData>
@@ -6464,28 +6464,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3021.798739096663</v>
+        <v>3142.714871513842</v>
       </c>
       <c r="AB2" t="n">
-        <v>4134.558347183947</v>
+        <v>4300.001134000416</v>
       </c>
       <c r="AC2" t="n">
-        <v>3739.961901417641</v>
+        <v>3889.61506086075</v>
       </c>
       <c r="AD2" t="n">
-        <v>3021798.739096663</v>
+        <v>3142714.871513842</v>
       </c>
       <c r="AE2" t="n">
-        <v>4134558.347183947</v>
+        <v>4300001.134000416</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.540871538105957e-07</v>
+        <v>1.652279553324329e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.96805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>3739961.901417641</v>
+        <v>3889615.060860749</v>
       </c>
     </row>
     <row r="3">
@@ -6570,28 +6570,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1333.78124376783</v>
+        <v>1404.415218674851</v>
       </c>
       <c r="AB3" t="n">
-        <v>1824.938339998742</v>
+        <v>1921.582860617573</v>
       </c>
       <c r="AC3" t="n">
-        <v>1650.768786146308</v>
+        <v>1738.189689358715</v>
       </c>
       <c r="AD3" t="n">
-        <v>1333781.24376783</v>
+        <v>1404415.218674851</v>
       </c>
       <c r="AE3" t="n">
-        <v>1824938.339998742</v>
+        <v>1921582.860617573</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.537677002558709e-06</v>
+        <v>2.662935205444731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.63194444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1650768.786146308</v>
+        <v>1738189.689358715</v>
       </c>
     </row>
     <row r="4">
@@ -6676,28 +6676,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1065.84406457303</v>
+        <v>1136.307357770908</v>
       </c>
       <c r="AB4" t="n">
-        <v>1458.334870870323</v>
+        <v>1554.745857244759</v>
       </c>
       <c r="AC4" t="n">
-        <v>1319.153437580305</v>
+        <v>1406.363094728835</v>
       </c>
       <c r="AD4" t="n">
-        <v>1065844.06457303</v>
+        <v>1136307.357770908</v>
       </c>
       <c r="AE4" t="n">
-        <v>1458334.870870323</v>
+        <v>1554745.857244759</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.749864053849076e-06</v>
+        <v>3.030398832773742e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.97777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1319153.437580305</v>
+        <v>1406363.094728835</v>
       </c>
     </row>
     <row r="5">
@@ -6782,28 +6782,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>963.4549895063111</v>
+        <v>1023.82780436888</v>
       </c>
       <c r="AB5" t="n">
-        <v>1318.241621276846</v>
+        <v>1400.846370032426</v>
       </c>
       <c r="AC5" t="n">
-        <v>1192.430491105919</v>
+        <v>1267.151558576759</v>
       </c>
       <c r="AD5" t="n">
-        <v>963454.9895063111</v>
+        <v>1023827.80436888</v>
       </c>
       <c r="AE5" t="n">
-        <v>1318241.621276846</v>
+        <v>1400846.370032426</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.857617648885578e-06</v>
+        <v>3.217005539681932e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.28333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1192430.491105919</v>
+        <v>1267151.558576759</v>
       </c>
     </row>
     <row r="6">
@@ -6888,28 +6888,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>890.4819585137175</v>
+        <v>950.9400247223066</v>
       </c>
       <c r="AB6" t="n">
-        <v>1218.396700929861</v>
+        <v>1301.118094338091</v>
       </c>
       <c r="AC6" t="n">
-        <v>1102.114629823625</v>
+        <v>1176.941209545178</v>
       </c>
       <c r="AD6" t="n">
-        <v>890481.9585137175</v>
+        <v>950940.0247223066</v>
       </c>
       <c r="AE6" t="n">
-        <v>1218396.700929862</v>
+        <v>1301118.094338091</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.926284155526486e-06</v>
+        <v>3.335921578397935e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.88194444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1102114.629823625</v>
+        <v>1176941.209545178</v>
       </c>
     </row>
     <row r="7">
@@ -6994,28 +6994,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>847.2710801702653</v>
+        <v>907.7291463788545</v>
       </c>
       <c r="AB7" t="n">
-        <v>1159.27367085094</v>
+        <v>1241.99506425917</v>
       </c>
       <c r="AC7" t="n">
-        <v>1048.634218755742</v>
+        <v>1123.460798477295</v>
       </c>
       <c r="AD7" t="n">
-        <v>847271.0801702654</v>
+        <v>907729.1463788545</v>
       </c>
       <c r="AE7" t="n">
-        <v>1159273.67085094</v>
+        <v>1241995.06425917</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.972917013882619e-06</v>
+        <v>3.416679943152319e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.62361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1048634.218755742</v>
+        <v>1123460.798477295</v>
       </c>
     </row>
     <row r="8">
@@ -7100,28 +7100,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>813.3109785696405</v>
+        <v>863.6785664429206</v>
       </c>
       <c r="AB8" t="n">
-        <v>1112.807961627021</v>
+        <v>1181.723117416395</v>
       </c>
       <c r="AC8" t="n">
-        <v>1006.603131605121</v>
+        <v>1068.941121648985</v>
       </c>
       <c r="AD8" t="n">
-        <v>813310.9785696405</v>
+        <v>863678.5664429206</v>
       </c>
       <c r="AE8" t="n">
-        <v>1112807.961627021</v>
+        <v>1181723.117416395</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.006118401708992e-06</v>
+        <v>3.47417780802599e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.44861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1006603.131605121</v>
+        <v>1068941.121648985</v>
       </c>
     </row>
     <row r="9">
@@ -7206,28 +7206,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>783.5596531381714</v>
+        <v>833.9272410114514</v>
       </c>
       <c r="AB9" t="n">
-        <v>1072.100885635841</v>
+        <v>1141.016041425215</v>
       </c>
       <c r="AC9" t="n">
-        <v>969.7810818137992</v>
+        <v>1032.119071857664</v>
       </c>
       <c r="AD9" t="n">
-        <v>783559.6531381714</v>
+        <v>833927.2410114515</v>
       </c>
       <c r="AE9" t="n">
-        <v>1072100.885635841</v>
+        <v>1141016.041425215</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.031774019574826e-06</v>
+        <v>3.518607976337464e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.31666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>969781.0818137992</v>
+        <v>1032119.071857664</v>
       </c>
     </row>
     <row r="10">
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>755.4832112005479</v>
+        <v>805.8507990738282</v>
       </c>
       <c r="AB10" t="n">
-        <v>1033.685459131586</v>
+        <v>1102.600614920959</v>
       </c>
       <c r="AC10" t="n">
-        <v>935.0319696987201</v>
+        <v>997.3699597425845</v>
       </c>
       <c r="AD10" t="n">
-        <v>755483.2112005479</v>
+        <v>805850.7990738282</v>
       </c>
       <c r="AE10" t="n">
-        <v>1033685.459131586</v>
+        <v>1102600.614920959</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.053053090863547e-06</v>
+        <v>3.555458880642863e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.20972222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>935031.9696987201</v>
+        <v>997369.9597425845</v>
       </c>
     </row>
     <row r="11">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>736.8884997262176</v>
+        <v>787.2560875994976</v>
       </c>
       <c r="AB11" t="n">
-        <v>1008.243354551634</v>
+        <v>1077.158510341007</v>
       </c>
       <c r="AC11" t="n">
-        <v>912.0180238716605</v>
+        <v>974.3560139155248</v>
       </c>
       <c r="AD11" t="n">
-        <v>736888.4997262176</v>
+        <v>787256.0875994976</v>
       </c>
       <c r="AE11" t="n">
-        <v>1008243.354551633</v>
+        <v>1077158.510341007</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.066182730594885e-06</v>
+        <v>3.578196672661088e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.14444444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>912018.0238716605</v>
+        <v>974356.0139155248</v>
       </c>
     </row>
     <row r="12">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>735.8615177791391</v>
+        <v>786.2291056524193</v>
       </c>
       <c r="AB12" t="n">
-        <v>1006.838192544395</v>
+        <v>1075.753348333768</v>
       </c>
       <c r="AC12" t="n">
-        <v>910.7469685542355</v>
+        <v>973.0849585980999</v>
       </c>
       <c r="AD12" t="n">
-        <v>735861.5177791391</v>
+        <v>786229.1056524193</v>
       </c>
       <c r="AE12" t="n">
-        <v>1006838.192544395</v>
+        <v>1075753.348333768</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.067993715385415e-06</v>
+        <v>3.581332919836015e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.13611111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>910746.9685542355</v>
+        <v>973084.9585980999</v>
       </c>
     </row>
     <row r="13">
@@ -7630,28 +7630,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>738.9825945135537</v>
+        <v>789.3501823868338</v>
       </c>
       <c r="AB13" t="n">
-        <v>1011.108587424609</v>
+        <v>1080.023743213982</v>
       </c>
       <c r="AC13" t="n">
-        <v>914.6098029406186</v>
+        <v>976.9477929844828</v>
       </c>
       <c r="AD13" t="n">
-        <v>738982.5945135538</v>
+        <v>789350.1823868338</v>
       </c>
       <c r="AE13" t="n">
-        <v>1011108.587424609</v>
+        <v>1080023.743213982</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.067842799986204e-06</v>
+        <v>3.581071565904771e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.13611111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>914609.8029406186</v>
+        <v>976947.7929844828</v>
       </c>
     </row>
   </sheetData>
@@ -7927,28 +7927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>999.8156209314441</v>
+        <v>1063.537928874431</v>
       </c>
       <c r="AB2" t="n">
-        <v>1367.991841310558</v>
+        <v>1455.179514267973</v>
       </c>
       <c r="AC2" t="n">
-        <v>1237.432619964485</v>
+        <v>1316.299223783513</v>
       </c>
       <c r="AD2" t="n">
-        <v>999815.6209314441</v>
+        <v>1063537.928874431</v>
       </c>
       <c r="AE2" t="n">
-        <v>1367991.841310558</v>
+        <v>1455179.514267973</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.669176840333535e-06</v>
+        <v>3.158441771607191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.0125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1237432.619964486</v>
+        <v>1316299.223783513</v>
       </c>
     </row>
     <row r="3">
@@ -8033,28 +8033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>657.2799248440558</v>
+        <v>711.8015263197557</v>
       </c>
       <c r="AB3" t="n">
-        <v>899.3193903154063</v>
+        <v>973.918250777757</v>
       </c>
       <c r="AC3" t="n">
-        <v>813.4896099063949</v>
+        <v>880.968859826377</v>
       </c>
       <c r="AD3" t="n">
-        <v>657279.9248440558</v>
+        <v>711801.5263197557</v>
       </c>
       <c r="AE3" t="n">
-        <v>899319.3903154063</v>
+        <v>973918.2507777569</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.083776656808632e-06</v>
+        <v>3.942953841996306e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.22361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>813489.6099063948</v>
+        <v>880968.859826377</v>
       </c>
     </row>
     <row r="4">
@@ -8139,28 +8139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>563.3088939767629</v>
+        <v>608.9710628949113</v>
       </c>
       <c r="AB4" t="n">
-        <v>770.7440801734838</v>
+        <v>833.2210741600129</v>
       </c>
       <c r="AC4" t="n">
-        <v>697.1853469078364</v>
+        <v>753.699624275303</v>
       </c>
       <c r="AD4" t="n">
-        <v>563308.8939767629</v>
+        <v>608971.0628949113</v>
       </c>
       <c r="AE4" t="n">
-        <v>770744.0801734838</v>
+        <v>833221.0741600129</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.215633544014157e-06</v>
+        <v>4.192455446835737e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>697185.3469078365</v>
+        <v>753699.624275303</v>
       </c>
     </row>
     <row r="5">
@@ -8245,28 +8245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>560.0063686614086</v>
+        <v>605.668537579557</v>
       </c>
       <c r="AB5" t="n">
-        <v>766.225419339882</v>
+        <v>828.7024133264109</v>
       </c>
       <c r="AC5" t="n">
-        <v>693.0979407222131</v>
+        <v>749.6122180896795</v>
       </c>
       <c r="AD5" t="n">
-        <v>560006.3686614085</v>
+        <v>605668.5375795569</v>
       </c>
       <c r="AE5" t="n">
-        <v>766225.419339882</v>
+        <v>828702.4133264109</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.224053524040052e-06</v>
+        <v>4.208387860937871e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.51666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>693097.9407222131</v>
+        <v>749612.2180896795</v>
       </c>
     </row>
   </sheetData>
@@ -8542,28 +8542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1489.680130892139</v>
+        <v>1565.567925777897</v>
       </c>
       <c r="AB2" t="n">
-        <v>2038.246075135711</v>
+        <v>2142.079104031631</v>
       </c>
       <c r="AC2" t="n">
-        <v>1843.718730421091</v>
+        <v>1937.642080769757</v>
       </c>
       <c r="AD2" t="n">
-        <v>1489680.130892138</v>
+        <v>1565567.925777897</v>
       </c>
       <c r="AE2" t="n">
-        <v>2038246.075135711</v>
+        <v>2142079.104031631</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.381615503921726e-06</v>
+        <v>2.517003396102174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.19583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1843718.730421091</v>
+        <v>1937642.080769757</v>
       </c>
     </row>
     <row r="3">
@@ -8648,28 +8648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>869.4335425221956</v>
+        <v>935.7392762658596</v>
       </c>
       <c r="AB3" t="n">
-        <v>1189.597329579685</v>
+        <v>1280.319759690288</v>
       </c>
       <c r="AC3" t="n">
-        <v>1076.063830054937</v>
+        <v>1158.127838765515</v>
       </c>
       <c r="AD3" t="n">
-        <v>869433.5425221956</v>
+        <v>935739.2762658596</v>
       </c>
       <c r="AE3" t="n">
-        <v>1189597.329579685</v>
+        <v>1280319.759690288</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.865406473870064e-06</v>
+        <v>3.398365476150545e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.99444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>1076063.830054937</v>
+        <v>1158127.838765515</v>
       </c>
     </row>
     <row r="4">
@@ -8754,28 +8754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>742.9015371435587</v>
+        <v>790.3847805469719</v>
       </c>
       <c r="AB4" t="n">
-        <v>1016.470657622528</v>
+        <v>1081.439326059933</v>
       </c>
       <c r="AC4" t="n">
-        <v>919.4601246845613</v>
+        <v>978.2282745903989</v>
       </c>
       <c r="AD4" t="n">
-        <v>742901.5371435587</v>
+        <v>790384.7805469719</v>
       </c>
       <c r="AE4" t="n">
-        <v>1016470.657622528</v>
+        <v>1081439.326059933</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.032953130129228e-06</v>
+        <v>3.703599096946518e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.00555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>919460.1246845613</v>
+        <v>978228.2745903989</v>
       </c>
     </row>
     <row r="5">
@@ -8860,28 +8860,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>664.8934566852546</v>
+        <v>712.4619514346886</v>
       </c>
       <c r="AB5" t="n">
-        <v>909.7365604658536</v>
+        <v>974.8218735559074</v>
       </c>
       <c r="AC5" t="n">
-        <v>822.9125799582737</v>
+        <v>881.7862421148235</v>
       </c>
       <c r="AD5" t="n">
-        <v>664893.4566852546</v>
+        <v>712461.9514346885</v>
       </c>
       <c r="AE5" t="n">
-        <v>909736.5604658535</v>
+        <v>974821.8735559074</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.121559534881671e-06</v>
+        <v>3.865020723329003e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.54583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>822912.5799582737</v>
+        <v>881786.2421148235</v>
       </c>
     </row>
     <row r="6">
@@ -8966,28 +8966,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>624.7334932484107</v>
+        <v>672.1313957972524</v>
       </c>
       <c r="AB6" t="n">
-        <v>854.7879267590196</v>
+        <v>919.6398280742267</v>
       </c>
       <c r="AC6" t="n">
-        <v>773.2081667315282</v>
+        <v>831.8706936054269</v>
       </c>
       <c r="AD6" t="n">
-        <v>624733.4932484106</v>
+        <v>672131.3957972524</v>
       </c>
       <c r="AE6" t="n">
-        <v>854787.9267590196</v>
+        <v>919639.8280742266</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.167473762798846e-06</v>
+        <v>3.948666475181746e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.32222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>773208.1667315282</v>
+        <v>831870.6936054269</v>
       </c>
     </row>
     <row r="7">
@@ -9072,28 +9072,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>621.2816029714971</v>
+        <v>668.6795055203388</v>
       </c>
       <c r="AB7" t="n">
-        <v>850.0648981954953</v>
+        <v>914.9167995107022</v>
       </c>
       <c r="AC7" t="n">
-        <v>768.9358973852944</v>
+        <v>827.5984242591932</v>
       </c>
       <c r="AD7" t="n">
-        <v>621281.6029714971</v>
+        <v>668679.5055203388</v>
       </c>
       <c r="AE7" t="n">
-        <v>850064.8981954952</v>
+        <v>914916.7995107021</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.173595659854469e-06</v>
+        <v>3.959819242095444e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.29444444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>768935.8973852944</v>
+        <v>827598.4242591931</v>
       </c>
     </row>
   </sheetData>
@@ -9369,28 +9369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>711.1235682246202</v>
+        <v>772.6567771395198</v>
       </c>
       <c r="AB2" t="n">
-        <v>972.990638602592</v>
+        <v>1057.183089693544</v>
       </c>
       <c r="AC2" t="n">
-        <v>880.1297776552981</v>
+        <v>956.2870193789772</v>
       </c>
       <c r="AD2" t="n">
-        <v>711123.5682246202</v>
+        <v>772656.7771395198</v>
       </c>
       <c r="AE2" t="n">
-        <v>972990.6386025919</v>
+        <v>1057183.089693544</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.919671169956871e-06</v>
+        <v>3.761936974166736e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.65416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>880129.7776552981</v>
+        <v>956287.0193789772</v>
       </c>
     </row>
     <row r="3">
@@ -9475,28 +9475,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>510.7621082681257</v>
+        <v>563.4926672159579</v>
       </c>
       <c r="AB3" t="n">
-        <v>698.8472497663514</v>
+        <v>770.9955268268537</v>
       </c>
       <c r="AC3" t="n">
-        <v>632.1502490869253</v>
+        <v>697.4127958455161</v>
       </c>
       <c r="AD3" t="n">
-        <v>510762.1082681257</v>
+        <v>563492.6672159579</v>
       </c>
       <c r="AE3" t="n">
-        <v>698847.2497663514</v>
+        <v>770995.5268268537</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.243405803301457e-06</v>
+        <v>4.396352548071859e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.82777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>632150.2490869253</v>
+        <v>697412.7958455161</v>
       </c>
     </row>
     <row r="4">
@@ -9581,28 +9581,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>512.6650697033773</v>
+        <v>565.3956286512097</v>
       </c>
       <c r="AB4" t="n">
-        <v>701.4509655547961</v>
+        <v>773.5992426152985</v>
       </c>
       <c r="AC4" t="n">
-        <v>634.5054698948591</v>
+        <v>699.7680166534498</v>
       </c>
       <c r="AD4" t="n">
-        <v>512665.0697033773</v>
+        <v>565395.6286512096</v>
       </c>
       <c r="AE4" t="n">
-        <v>701450.965554796</v>
+        <v>773599.2426152985</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.246903746395402e-06</v>
+        <v>4.403207389497091e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.81111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>634505.469894859</v>
+        <v>699768.0166534497</v>
       </c>
     </row>
   </sheetData>
@@ -9878,28 +9878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3419.803812789199</v>
+        <v>3541.7416984688</v>
       </c>
       <c r="AB2" t="n">
-        <v>4679.126447754721</v>
+        <v>4845.967242461411</v>
       </c>
       <c r="AC2" t="n">
-        <v>4232.55718677605</v>
+        <v>4383.474930198451</v>
       </c>
       <c r="AD2" t="n">
-        <v>3419803.812789199</v>
+        <v>3541741.6984688</v>
       </c>
       <c r="AE2" t="n">
-        <v>4679126.447754721</v>
+        <v>4845967.242461411</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.934698688845554e-07</v>
+        <v>1.537198118695122e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.24861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>4232557.18677605</v>
+        <v>4383474.930198452</v>
       </c>
     </row>
     <row r="3">
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1415.783275963926</v>
+        <v>1497.018246174912</v>
       </c>
       <c r="AB3" t="n">
-        <v>1937.137138123778</v>
+        <v>2048.286408200399</v>
       </c>
       <c r="AC3" t="n">
-        <v>1752.259488450293</v>
+        <v>1852.800828189782</v>
       </c>
       <c r="AD3" t="n">
-        <v>1415783.275963926</v>
+        <v>1497018.246174912</v>
       </c>
       <c r="AE3" t="n">
-        <v>1937137.138123778</v>
+        <v>2048286.408200399</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.491409697441712e-06</v>
+        <v>2.565942356817502e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.92777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1752259.488450293</v>
+        <v>1852800.828189782</v>
       </c>
     </row>
     <row r="4">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1133.127432933475</v>
+        <v>1194.096420527551</v>
       </c>
       <c r="AB4" t="n">
-        <v>1550.394943793801</v>
+        <v>1633.815402381914</v>
       </c>
       <c r="AC4" t="n">
-        <v>1402.42742635109</v>
+        <v>1477.886353452903</v>
       </c>
       <c r="AD4" t="n">
-        <v>1133127.432933475</v>
+        <v>1194096.420527551</v>
       </c>
       <c r="AE4" t="n">
-        <v>1550394.943793801</v>
+        <v>1633815.402381914</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.707822636891988e-06</v>
+        <v>2.938276752155942e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.1625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1402427.42635109</v>
+        <v>1477886.353452903</v>
       </c>
     </row>
     <row r="5">
@@ -10196,28 +10196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1007.722862827437</v>
+        <v>1068.606509566941</v>
       </c>
       <c r="AB5" t="n">
-        <v>1378.810878515548</v>
+        <v>1462.114569981464</v>
       </c>
       <c r="AC5" t="n">
-        <v>1247.219103443246</v>
+        <v>1322.57240751312</v>
       </c>
       <c r="AD5" t="n">
-        <v>1007722.862827437</v>
+        <v>1068606.509566942</v>
       </c>
       <c r="AE5" t="n">
-        <v>1378810.878515549</v>
+        <v>1462114.569981464</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.823133194124997e-06</v>
+        <v>3.136666398877392e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.39305555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1247219.103443246</v>
+        <v>1322572.40751312</v>
       </c>
     </row>
     <row r="6">
@@ -10302,28 +10302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>931.7440860530879</v>
+        <v>992.7129841386129</v>
       </c>
       <c r="AB6" t="n">
-        <v>1274.853364185821</v>
+        <v>1358.273700304386</v>
       </c>
       <c r="AC6" t="n">
-        <v>1153.18314837586</v>
+        <v>1228.641964696446</v>
       </c>
       <c r="AD6" t="n">
-        <v>931744.086053088</v>
+        <v>992712.9841386129</v>
       </c>
       <c r="AE6" t="n">
-        <v>1274853.364185821</v>
+        <v>1358273.700304386</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.893276710781652e-06</v>
+        <v>3.257347001098351e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.97083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1153183.14837586</v>
+        <v>1228641.964696446</v>
       </c>
     </row>
     <row r="7">
@@ -10408,28 +10408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>887.3502996779632</v>
+        <v>948.3191977634882</v>
       </c>
       <c r="AB7" t="n">
-        <v>1214.111827151746</v>
+        <v>1297.532163270311</v>
       </c>
       <c r="AC7" t="n">
-        <v>1098.238698385034</v>
+        <v>1173.697514705621</v>
       </c>
       <c r="AD7" t="n">
-        <v>887350.2996779633</v>
+        <v>948319.1977634882</v>
       </c>
       <c r="AE7" t="n">
-        <v>1214111.827151746</v>
+        <v>1297532.163270311</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.939789788991075e-06</v>
+        <v>3.337371878050843e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.70833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1098238.698385034</v>
+        <v>1173697.51470562</v>
       </c>
     </row>
     <row r="8">
@@ -10514,28 +10514,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>852.411906895972</v>
+        <v>903.3757802006241</v>
       </c>
       <c r="AB8" t="n">
-        <v>1166.30757677432</v>
+        <v>1236.038596597154</v>
       </c>
       <c r="AC8" t="n">
-        <v>1054.996818569943</v>
+        <v>1118.072807728986</v>
       </c>
       <c r="AD8" t="n">
-        <v>852411.9068959721</v>
+        <v>903375.7802006241</v>
       </c>
       <c r="AE8" t="n">
-        <v>1166307.57677432</v>
+        <v>1236038.596597154</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.97538500639893e-06</v>
+        <v>3.398612780670434e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.51527777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1054996.818569943</v>
+        <v>1118072.807728986</v>
       </c>
     </row>
     <row r="9">
@@ -10620,28 +10620,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>822.490878152482</v>
+        <v>873.2841592565419</v>
       </c>
       <c r="AB9" t="n">
-        <v>1125.368305224852</v>
+        <v>1194.865913272838</v>
       </c>
       <c r="AC9" t="n">
-        <v>1017.964733638528</v>
+        <v>1080.82958751492</v>
       </c>
       <c r="AD9" t="n">
-        <v>822490.878152482</v>
+        <v>873284.1592565419</v>
       </c>
       <c r="AE9" t="n">
-        <v>1125368.305224852</v>
+        <v>1194865.913272838</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.000660601953247e-06</v>
+        <v>3.442098967824681e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.38194444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>1017964.733638528</v>
+        <v>1080829.58751492</v>
       </c>
     </row>
     <row r="10">
@@ -10726,28 +10726,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>797.6008207634883</v>
+        <v>848.3941018675481</v>
       </c>
       <c r="AB10" t="n">
-        <v>1091.312630633397</v>
+        <v>1160.810238681383</v>
       </c>
       <c r="AC10" t="n">
-        <v>987.1592848326414</v>
+        <v>1050.024138709034</v>
       </c>
       <c r="AD10" t="n">
-        <v>797600.8207634883</v>
+        <v>848394.1018675481</v>
       </c>
       <c r="AE10" t="n">
-        <v>1091312.630633397</v>
+        <v>1160810.238681383</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.0227954430304e-06</v>
+        <v>3.48018154592426e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.26944444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>987159.2848326415</v>
+        <v>1050024.138709034</v>
       </c>
     </row>
     <row r="11">
@@ -10832,28 +10832,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>772.7204180045266</v>
+        <v>823.5136991085863</v>
       </c>
       <c r="AB11" t="n">
-        <v>1057.270165932683</v>
+        <v>1126.76777398067</v>
       </c>
       <c r="AC11" t="n">
-        <v>956.365785184065</v>
+        <v>1019.230639060457</v>
       </c>
       <c r="AD11" t="n">
-        <v>772720.4180045265</v>
+        <v>823513.6991085863</v>
       </c>
       <c r="AE11" t="n">
-        <v>1057270.165932683</v>
+        <v>1126767.77398067</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.039845253049289e-06</v>
+        <v>3.509515423649609e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.18333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>956365.785184065</v>
+        <v>1019230.639060457</v>
       </c>
     </row>
     <row r="12">
@@ -10938,28 +10938,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>755.9483324934429</v>
+        <v>806.7416135975026</v>
       </c>
       <c r="AB12" t="n">
-        <v>1034.321858604228</v>
+        <v>1103.819466652214</v>
       </c>
       <c r="AC12" t="n">
-        <v>935.6076320988857</v>
+        <v>998.4724859752776</v>
       </c>
       <c r="AD12" t="n">
-        <v>755948.3324934429</v>
+        <v>806741.6135975026</v>
       </c>
       <c r="AE12" t="n">
-        <v>1034321.858604228</v>
+        <v>1103819.466652214</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.050912673587865e-06</v>
+        <v>3.528556712699399e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.12777777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>935607.6320988857</v>
+        <v>998472.4859752775</v>
       </c>
     </row>
     <row r="13">
@@ -11044,28 +11044,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>755.5812253686858</v>
+        <v>806.3745064727456</v>
       </c>
       <c r="AB13" t="n">
-        <v>1033.819566440512</v>
+        <v>1103.317174488498</v>
       </c>
       <c r="AC13" t="n">
-        <v>935.1532779943033</v>
+        <v>998.0181318706951</v>
       </c>
       <c r="AD13" t="n">
-        <v>755581.2253686858</v>
+        <v>806374.5064727456</v>
       </c>
       <c r="AE13" t="n">
-        <v>1033819.566440512</v>
+        <v>1103317.174488498</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.053006509905974e-06</v>
+        <v>3.532159118735845e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.11805555555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>935153.2779943033</v>
+        <v>998018.1318706952</v>
       </c>
     </row>
     <row r="14">
@@ -11150,28 +11150,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>758.8032658488232</v>
+        <v>809.596546952883</v>
       </c>
       <c r="AB14" t="n">
-        <v>1038.228104371829</v>
+        <v>1107.725712419816</v>
       </c>
       <c r="AC14" t="n">
-        <v>939.1410712528779</v>
+        <v>1002.00592512927</v>
       </c>
       <c r="AD14" t="n">
-        <v>758803.2658488232</v>
+        <v>809596.546952883</v>
       </c>
       <c r="AE14" t="n">
-        <v>1038228.10437183</v>
+        <v>1107725.712419816</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.052408270957944e-06</v>
+        <v>3.531129859868289e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.12083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>939141.0712528778</v>
+        <v>1002005.92512927</v>
       </c>
     </row>
   </sheetData>
@@ -11447,28 +11447,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>569.629782521767</v>
+        <v>629.7814291930728</v>
       </c>
       <c r="AB2" t="n">
-        <v>779.3925987386801</v>
+        <v>861.6947354177228</v>
       </c>
       <c r="AC2" t="n">
-        <v>705.0084629994424</v>
+        <v>779.4557992656114</v>
       </c>
       <c r="AD2" t="n">
-        <v>569629.782521767</v>
+        <v>629781.4291930727</v>
       </c>
       <c r="AE2" t="n">
-        <v>779392.5987386801</v>
+        <v>861694.7354177227</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.079823900133195e-06</v>
+        <v>4.169340562915443e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.95277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>705008.4629994424</v>
+        <v>779455.7992656115</v>
       </c>
     </row>
     <row r="3">
@@ -11553,28 +11553,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>493.1375390845359</v>
+        <v>536.2250060076932</v>
       </c>
       <c r="AB3" t="n">
-        <v>674.7325366682475</v>
+        <v>733.6867097973944</v>
       </c>
       <c r="AC3" t="n">
-        <v>610.337010361692</v>
+        <v>663.6646799500949</v>
       </c>
       <c r="AD3" t="n">
-        <v>493137.5390845359</v>
+        <v>536225.0060076932</v>
       </c>
       <c r="AE3" t="n">
-        <v>674732.5366682474</v>
+        <v>733686.7097973945</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.242880662011108e-06</v>
+        <v>4.496213992589796e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>610337.0103616921</v>
+        <v>663664.6799500949</v>
       </c>
     </row>
   </sheetData>
@@ -11850,28 +11850,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2128.231889329802</v>
+        <v>2226.289065918383</v>
       </c>
       <c r="AB2" t="n">
-        <v>2911.940761945501</v>
+        <v>3046.10691693149</v>
       </c>
       <c r="AC2" t="n">
-        <v>2634.029222559949</v>
+        <v>2755.390748017343</v>
       </c>
       <c r="AD2" t="n">
-        <v>2128231.889329802</v>
+        <v>2226289.065918383</v>
       </c>
       <c r="AE2" t="n">
-        <v>2911940.761945501</v>
+        <v>3046106.91693149</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.150001271547412e-06</v>
+        <v>2.036737704939803e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.77777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2634029.222559949</v>
+        <v>2755390.748017343</v>
       </c>
     </row>
     <row r="3">
@@ -11956,28 +11956,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1093.869918882885</v>
+        <v>1162.484340238518</v>
       </c>
       <c r="AB3" t="n">
-        <v>1496.681081150496</v>
+        <v>1590.562359503905</v>
       </c>
       <c r="AC3" t="n">
-        <v>1353.839939370583</v>
+        <v>1438.761320281144</v>
       </c>
       <c r="AD3" t="n">
-        <v>1093869.918882885</v>
+        <v>1162484.340238518</v>
       </c>
       <c r="AE3" t="n">
-        <v>1496681.081150496</v>
+        <v>1590562.359503905</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.688306355660059e-06</v>
+        <v>2.990116008685288e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.79166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1353839.939370583</v>
+        <v>1438761.320281144</v>
       </c>
     </row>
     <row r="4">
@@ -12062,28 +12062,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>905.6043236426573</v>
+        <v>964.3192419079547</v>
       </c>
       <c r="AB4" t="n">
-        <v>1239.087788050941</v>
+        <v>1319.4241295409</v>
       </c>
       <c r="AC4" t="n">
-        <v>1120.830988629992</v>
+        <v>1193.500142440912</v>
       </c>
       <c r="AD4" t="n">
-        <v>905604.3236426573</v>
+        <v>964319.2419079547</v>
       </c>
       <c r="AE4" t="n">
-        <v>1239087.788050941</v>
+        <v>1319424.1295409</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.878936636746744e-06</v>
+        <v>3.327736401635016e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.49305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1120830.988629992</v>
+        <v>1193500.142440912</v>
       </c>
     </row>
     <row r="5">
@@ -12168,28 +12168,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>812.1476981870903</v>
+        <v>870.9478677984085</v>
       </c>
       <c r="AB5" t="n">
-        <v>1111.216310087308</v>
+        <v>1191.669296229915</v>
       </c>
       <c r="AC5" t="n">
-        <v>1005.163385054461</v>
+        <v>1077.938051116093</v>
       </c>
       <c r="AD5" t="n">
-        <v>812147.6981870903</v>
+        <v>870947.8677984085</v>
       </c>
       <c r="AE5" t="n">
-        <v>1111216.310087308</v>
+        <v>1191669.296229915</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.979071955686243e-06</v>
+        <v>3.505083492221987e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.9125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1005163.385054461</v>
+        <v>1077938.051116093</v>
       </c>
     </row>
     <row r="6">
@@ -12274,28 +12274,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>761.5374942024823</v>
+        <v>820.3376638138003</v>
       </c>
       <c r="AB6" t="n">
-        <v>1041.969196230948</v>
+        <v>1122.422182373555</v>
       </c>
       <c r="AC6" t="n">
-        <v>942.5251185556172</v>
+        <v>1015.29978461725</v>
       </c>
       <c r="AD6" t="n">
-        <v>761537.4942024823</v>
+        <v>820337.6638138003</v>
       </c>
       <c r="AE6" t="n">
-        <v>1041969.196230948</v>
+        <v>1122422.182373555</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.038779971948305e-06</v>
+        <v>3.610830825739684e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.59166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>942525.1185556172</v>
+        <v>1015299.78461725</v>
       </c>
     </row>
     <row r="7">
@@ -12380,28 +12380,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>720.0743256780635</v>
+        <v>769.0603330536177</v>
       </c>
       <c r="AB7" t="n">
-        <v>985.2374598299428</v>
+        <v>1052.262276231298</v>
       </c>
       <c r="AC7" t="n">
-        <v>891.2077794532321</v>
+        <v>951.8358414471625</v>
       </c>
       <c r="AD7" t="n">
-        <v>720074.3256780634</v>
+        <v>769060.3330536177</v>
       </c>
       <c r="AE7" t="n">
-        <v>985237.4598299429</v>
+        <v>1052262.276231298</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.082161577513709e-06</v>
+        <v>3.687662872748635e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.37222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>891207.7794532321</v>
+        <v>951835.8414471624</v>
       </c>
     </row>
     <row r="8">
@@ -12486,28 +12486,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>688.709560109296</v>
+        <v>737.6955674848502</v>
       </c>
       <c r="AB8" t="n">
-        <v>942.3228038629561</v>
+        <v>1009.347620264311</v>
       </c>
       <c r="AC8" t="n">
-        <v>852.3888380206366</v>
+        <v>913.016900014567</v>
       </c>
       <c r="AD8" t="n">
-        <v>688709.560109296</v>
+        <v>737695.5674848503</v>
       </c>
       <c r="AE8" t="n">
-        <v>942322.8038629561</v>
+        <v>1009347.620264311</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.11014971013655e-06</v>
+        <v>3.737231935335056e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.23472222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>852388.8380206366</v>
+        <v>913016.900014567</v>
       </c>
     </row>
     <row r="9">
@@ -12592,28 +12592,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>680.3408733773356</v>
+        <v>729.3268807528898</v>
       </c>
       <c r="AB9" t="n">
-        <v>930.8723974758861</v>
+        <v>997.8972138772413</v>
       </c>
       <c r="AC9" t="n">
-        <v>842.0312423484023</v>
+        <v>902.6593043423326</v>
       </c>
       <c r="AD9" t="n">
-        <v>680340.8733773356</v>
+        <v>729326.8807528898</v>
       </c>
       <c r="AE9" t="n">
-        <v>930872.3974758862</v>
+        <v>997897.2138772412</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.118857129174767e-06</v>
+        <v>3.752653421473053e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.19166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>842031.2423484023</v>
+        <v>902659.3043423325</v>
       </c>
     </row>
     <row r="10">
@@ -12698,28 +12698,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>682.7967031868519</v>
+        <v>731.7827105624062</v>
       </c>
       <c r="AB10" t="n">
-        <v>934.2325721648311</v>
+        <v>1001.257388566186</v>
       </c>
       <c r="AC10" t="n">
-        <v>845.0707266810691</v>
+        <v>905.6987886749995</v>
       </c>
       <c r="AD10" t="n">
-        <v>682796.7031868519</v>
+        <v>731782.7105624062</v>
       </c>
       <c r="AE10" t="n">
-        <v>934232.5721648311</v>
+        <v>1001257.388566186</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.118546149923402e-06</v>
+        <v>3.752102654110982e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.19305555555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>845070.7266810691</v>
+        <v>905698.7886749995</v>
       </c>
     </row>
   </sheetData>
@@ -12995,28 +12995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2689.200225471336</v>
+        <v>2799.138993248847</v>
       </c>
       <c r="AB2" t="n">
-        <v>3679.48238763091</v>
+        <v>3829.905459860236</v>
       </c>
       <c r="AC2" t="n">
-        <v>3328.317752741242</v>
+        <v>3464.384658077103</v>
       </c>
       <c r="AD2" t="n">
-        <v>2689200.225471335</v>
+        <v>2799138.993248847</v>
       </c>
       <c r="AE2" t="n">
-        <v>3679482.38763091</v>
+        <v>3829905.459860235</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.016014514549356e-06</v>
+        <v>1.771840595795049e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.82638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>3328317.752741242</v>
+        <v>3464384.658077103</v>
       </c>
     </row>
     <row r="3">
@@ -13101,28 +13101,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1254.097261222914</v>
+        <v>1323.942010879102</v>
       </c>
       <c r="AB3" t="n">
-        <v>1715.911199671583</v>
+        <v>1811.475867484063</v>
       </c>
       <c r="AC3" t="n">
-        <v>1552.14704307142</v>
+        <v>1638.591153113731</v>
       </c>
       <c r="AD3" t="n">
-        <v>1254097.261222914</v>
+        <v>1323942.010879102</v>
       </c>
       <c r="AE3" t="n">
-        <v>1715911.199671583</v>
+        <v>1811475.867484063</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.586103930270406e-06</v>
+        <v>2.766026757058368e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.34166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1552147.04307142</v>
+        <v>1638591.153113731</v>
       </c>
     </row>
     <row r="4">
@@ -13207,28 +13207,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1012.526633021855</v>
+        <v>1072.539783184808</v>
       </c>
       <c r="AB4" t="n">
-        <v>1385.383608822934</v>
+        <v>1467.496248469215</v>
       </c>
       <c r="AC4" t="n">
-        <v>1253.16454159498</v>
+        <v>1327.440466159233</v>
       </c>
       <c r="AD4" t="n">
-        <v>1012526.633021855</v>
+        <v>1072539.783184808</v>
       </c>
       <c r="AE4" t="n">
-        <v>1385383.608822934</v>
+        <v>1467496.248469215</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.790708442647042e-06</v>
+        <v>3.122839160739992e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.81527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1253164.54159498</v>
+        <v>1327440.466159233</v>
       </c>
     </row>
     <row r="5">
@@ -13313,28 +13313,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>915.2413057961675</v>
+        <v>965.2523537738466</v>
       </c>
       <c r="AB5" t="n">
-        <v>1252.273532187021</v>
+        <v>1320.700854361804</v>
       </c>
       <c r="AC5" t="n">
-        <v>1132.758303852032</v>
+        <v>1194.655018436803</v>
       </c>
       <c r="AD5" t="n">
-        <v>915241.3057961675</v>
+        <v>965252.3537738466</v>
       </c>
       <c r="AE5" t="n">
-        <v>1252273.532187021</v>
+        <v>1320700.854361804</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.898114385480645e-06</v>
+        <v>3.310145746440324e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.14861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1132758.303852032</v>
+        <v>1194655.018436803</v>
       </c>
     </row>
     <row r="6">
@@ -13419,28 +13419,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>848.1266031310134</v>
+        <v>908.0544124393957</v>
       </c>
       <c r="AB6" t="n">
-        <v>1160.444235108845</v>
+        <v>1242.440107632928</v>
       </c>
       <c r="AC6" t="n">
-        <v>1049.693066003769</v>
+        <v>1123.863367536084</v>
       </c>
       <c r="AD6" t="n">
-        <v>848126.6031310135</v>
+        <v>908054.4124393957</v>
       </c>
       <c r="AE6" t="n">
-        <v>1160444.235108845</v>
+        <v>1242440.107632928</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.961948555760474e-06</v>
+        <v>3.421466965459386e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.78472222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1049693.066003769</v>
+        <v>1123863.367536084</v>
       </c>
     </row>
     <row r="7">
@@ -13525,28 +13525,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>806.2303325343516</v>
+        <v>856.3266318580514</v>
       </c>
       <c r="AB7" t="n">
-        <v>1103.119909345482</v>
+        <v>1171.663876172914</v>
       </c>
       <c r="AC7" t="n">
-        <v>997.8396934360653</v>
+        <v>1059.841920271549</v>
       </c>
       <c r="AD7" t="n">
-        <v>806230.3325343516</v>
+        <v>856326.6318580514</v>
       </c>
       <c r="AE7" t="n">
-        <v>1103119.909345482</v>
+        <v>1171663.876172914</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.007348514575245e-06</v>
+        <v>3.500640529344065e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.54166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>997839.6934360653</v>
+        <v>1059841.920271549</v>
       </c>
     </row>
     <row r="8">
@@ -13631,28 +13631,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>770.9688685378717</v>
+        <v>820.8945756609794</v>
       </c>
       <c r="AB8" t="n">
-        <v>1054.873618679498</v>
+        <v>1123.184173732082</v>
       </c>
       <c r="AC8" t="n">
-        <v>954.1979610371479</v>
+        <v>1015.98905258998</v>
       </c>
       <c r="AD8" t="n">
-        <v>770968.8685378716</v>
+        <v>820894.5756609794</v>
       </c>
       <c r="AE8" t="n">
-        <v>1054873.618679498</v>
+        <v>1123184.173732082</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.040560564983366e-06</v>
+        <v>3.558559445206011e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.36944444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>954197.9610371479</v>
+        <v>1015989.05258998</v>
       </c>
     </row>
     <row r="9">
@@ -13737,28 +13737,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>741.1873314334931</v>
+        <v>791.1130385566007</v>
       </c>
       <c r="AB9" t="n">
-        <v>1014.125205744598</v>
+        <v>1082.435760797183</v>
       </c>
       <c r="AC9" t="n">
-        <v>917.3385194419983</v>
+        <v>979.1296109948305</v>
       </c>
       <c r="AD9" t="n">
-        <v>741187.3314334931</v>
+        <v>791113.0385566007</v>
       </c>
       <c r="AE9" t="n">
-        <v>1014125.205744598</v>
+        <v>1082435.760797183</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.066155172637331e-06</v>
+        <v>3.60319420605375e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.24166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>917338.5194419983</v>
+        <v>979129.6109948305</v>
       </c>
     </row>
     <row r="10">
@@ -13843,28 +13843,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>721.0275618331858</v>
+        <v>770.9532689562933</v>
       </c>
       <c r="AB10" t="n">
-        <v>986.5417195911922</v>
+        <v>1054.852274643777</v>
       </c>
       <c r="AC10" t="n">
-        <v>892.3875624934082</v>
+        <v>954.1786540462402</v>
       </c>
       <c r="AD10" t="n">
-        <v>721027.5618331858</v>
+        <v>770953.2689562934</v>
       </c>
       <c r="AE10" t="n">
-        <v>986541.7195911922</v>
+        <v>1054852.274643777</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.080171267304978e-06</v>
+        <v>3.627637051279892e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.17222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>892387.5624934081</v>
+        <v>954178.6540462403</v>
       </c>
     </row>
     <row r="11">
@@ -13949,28 +13949,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>717.5736020247033</v>
+        <v>767.4993091478108</v>
       </c>
       <c r="AB11" t="n">
-        <v>981.8158594032741</v>
+        <v>1050.126414455859</v>
       </c>
       <c r="AC11" t="n">
-        <v>888.1127317690384</v>
+        <v>949.9038233218705</v>
       </c>
       <c r="AD11" t="n">
-        <v>717573.6020247033</v>
+        <v>767499.3091478108</v>
       </c>
       <c r="AE11" t="n">
-        <v>981815.8594032741</v>
+        <v>1050126.414455859</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.084437035247306e-06</v>
+        <v>3.635076178087849e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.15138888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>888112.7317690384</v>
+        <v>949903.8233218705</v>
       </c>
     </row>
   </sheetData>
@@ -14246,28 +14246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4382.183192128167</v>
+        <v>4516.48446999219</v>
       </c>
       <c r="AB2" t="n">
-        <v>5995.896371748116</v>
+        <v>6179.653305075897</v>
       </c>
       <c r="AC2" t="n">
-        <v>5423.65643732166</v>
+        <v>5589.875866837105</v>
       </c>
       <c r="AD2" t="n">
-        <v>4382183.192128167</v>
+        <v>4516484.46999219</v>
       </c>
       <c r="AE2" t="n">
-        <v>5995896.371748116</v>
+        <v>6179653.305075897</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.805447591776902e-07</v>
+        <v>1.326874358921972e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.16527777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>5423656.43732166</v>
+        <v>5589875.866837105</v>
       </c>
     </row>
     <row r="3">
@@ -14352,28 +14352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1600.780750460038</v>
+        <v>1683.394812196261</v>
       </c>
       <c r="AB3" t="n">
-        <v>2190.258844241921</v>
+        <v>2303.295048184597</v>
       </c>
       <c r="AC3" t="n">
-        <v>1981.223614195066</v>
+        <v>2083.471801480762</v>
       </c>
       <c r="AD3" t="n">
-        <v>1600780.750460037</v>
+        <v>1683394.812196261</v>
       </c>
       <c r="AE3" t="n">
-        <v>2190258.844241921</v>
+        <v>2303295.048184597</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.403451239938183e-06</v>
+        <v>2.385774092228956e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.55277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1981223.614195066</v>
+        <v>2083471.801480762</v>
       </c>
     </row>
     <row r="4">
@@ -14458,28 +14458,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1247.793858390933</v>
+        <v>1309.903751188601</v>
       </c>
       <c r="AB4" t="n">
-        <v>1707.286605830359</v>
+        <v>1792.268101251212</v>
       </c>
       <c r="AC4" t="n">
-        <v>1544.34556836171</v>
+        <v>1621.216549131874</v>
       </c>
       <c r="AD4" t="n">
-        <v>1247793.858390933</v>
+        <v>1309903.751188601</v>
       </c>
       <c r="AE4" t="n">
-        <v>1707286.605830359</v>
+        <v>1792268.101251212</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.630938568960015e-06</v>
+        <v>2.772487474529689e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.52222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1544345.56836171</v>
+        <v>1621216.549131874</v>
       </c>
     </row>
     <row r="5">
@@ -14564,28 +14564,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1103.514325447842</v>
+        <v>1165.538877390938</v>
       </c>
       <c r="AB5" t="n">
-        <v>1509.87698369386</v>
+        <v>1594.741711992515</v>
       </c>
       <c r="AC5" t="n">
-        <v>1365.776443495773</v>
+        <v>1442.541801233999</v>
       </c>
       <c r="AD5" t="n">
-        <v>1103514.325447842</v>
+        <v>1165538.877390938</v>
       </c>
       <c r="AE5" t="n">
-        <v>1509876.98369386</v>
+        <v>1594741.711992515</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.751667138531395e-06</v>
+        <v>2.977718041348629e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.65972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1365776.443495773</v>
+        <v>1442541.801233999</v>
       </c>
     </row>
     <row r="6">
@@ -14670,28 +14670,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1028.340982477873</v>
+        <v>1080.028198605671</v>
       </c>
       <c r="AB6" t="n">
-        <v>1407.021499428517</v>
+        <v>1477.742228813612</v>
       </c>
       <c r="AC6" t="n">
-        <v>1272.737342290136</v>
+        <v>1336.708584519884</v>
       </c>
       <c r="AD6" t="n">
-        <v>1028340.982477873</v>
+        <v>1080028.198605671</v>
       </c>
       <c r="AE6" t="n">
-        <v>1407021.499428517</v>
+        <v>1477742.228813612</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.826074758754438e-06</v>
+        <v>3.104206064260182e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.18472222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1272737.342290136</v>
+        <v>1336708.584519884</v>
       </c>
     </row>
     <row r="7">
@@ -14776,28 +14776,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>967.2503747085922</v>
+        <v>1029.189585797117</v>
       </c>
       <c r="AB7" t="n">
-        <v>1323.434634751184</v>
+        <v>1408.182595927642</v>
       </c>
       <c r="AC7" t="n">
-        <v>1197.127890662706</v>
+        <v>1273.787625368994</v>
       </c>
       <c r="AD7" t="n">
-        <v>967250.3747085922</v>
+        <v>1029189.585797117</v>
       </c>
       <c r="AE7" t="n">
-        <v>1323434.634751184</v>
+        <v>1408182.595927642</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.876954277721183e-06</v>
+        <v>3.190697874393377e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.88194444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1197127.890662706</v>
+        <v>1273787.625368994</v>
       </c>
     </row>
     <row r="8">
@@ -14882,28 +14882,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>930.5918249673146</v>
+        <v>992.5310360558391</v>
       </c>
       <c r="AB8" t="n">
-        <v>1273.276789734094</v>
+        <v>1358.024750910552</v>
       </c>
       <c r="AC8" t="n">
-        <v>1151.75703997707</v>
+        <v>1228.416774683357</v>
       </c>
       <c r="AD8" t="n">
-        <v>930591.8249673146</v>
+        <v>992531.036055839</v>
       </c>
       <c r="AE8" t="n">
-        <v>1273276.789734094</v>
+        <v>1358024.750910552</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.913863986567e-06</v>
+        <v>3.253441933189424e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.67222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1151757.03997707</v>
+        <v>1228416.774683357</v>
       </c>
     </row>
     <row r="9">
@@ -14988,28 +14988,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>898.8282467134509</v>
+        <v>950.6007141872693</v>
       </c>
       <c r="AB9" t="n">
-        <v>1229.816460656985</v>
+        <v>1300.653834694729</v>
       </c>
       <c r="AC9" t="n">
-        <v>1112.444503710125</v>
+        <v>1176.521258190586</v>
       </c>
       <c r="AD9" t="n">
-        <v>898828.2467134509</v>
+        <v>950600.7141872693</v>
       </c>
       <c r="AE9" t="n">
-        <v>1229816.460656985</v>
+        <v>1300653.834694729</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.943568214403077e-06</v>
+        <v>3.303937151822099e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.50833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1112444.503710125</v>
+        <v>1176521.258190586</v>
       </c>
     </row>
     <row r="10">
@@ -15094,28 +15094,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>874.066700311119</v>
+        <v>925.6685755843453</v>
       </c>
       <c r="AB10" t="n">
-        <v>1195.936620466985</v>
+        <v>1266.540582729882</v>
       </c>
       <c r="AC10" t="n">
-        <v>1081.798107917205</v>
+        <v>1145.663727115014</v>
       </c>
       <c r="AD10" t="n">
-        <v>874066.700311119</v>
+        <v>925668.5755843453</v>
       </c>
       <c r="AE10" t="n">
-        <v>1195936.620466985</v>
+        <v>1266540.582729882</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.964743505533745e-06</v>
+        <v>3.33993374332262e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.39583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1081798.107917204</v>
+        <v>1145663.727115014</v>
       </c>
     </row>
     <row r="11">
@@ -15200,28 +15200,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>851.360596225867</v>
+        <v>902.9624714990932</v>
       </c>
       <c r="AB11" t="n">
-        <v>1164.869127134929</v>
+        <v>1235.473089397826</v>
       </c>
       <c r="AC11" t="n">
-        <v>1053.695652545259</v>
+        <v>1117.561271743069</v>
       </c>
       <c r="AD11" t="n">
-        <v>851360.5962258669</v>
+        <v>902962.4714990932</v>
       </c>
       <c r="AE11" t="n">
-        <v>1164869.127134929</v>
+        <v>1235473.089397826</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.983124834640228e-06</v>
+        <v>3.37118078455571e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.29861111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>1053695.652545259</v>
+        <v>1117561.271743068</v>
       </c>
     </row>
     <row r="12">
@@ -15306,28 +15306,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>826.7770508055428</v>
+        <v>878.3789260787689</v>
       </c>
       <c r="AB12" t="n">
-        <v>1131.232835741361</v>
+        <v>1201.836798004258</v>
       </c>
       <c r="AC12" t="n">
-        <v>1023.269561593462</v>
+        <v>1087.135180791271</v>
       </c>
       <c r="AD12" t="n">
-        <v>826777.0508055427</v>
+        <v>878378.9260787689</v>
       </c>
       <c r="AE12" t="n">
-        <v>1131232.835741361</v>
+        <v>1201836.798004258</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.998418100456822e-06</v>
+        <v>3.397178322861642e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.21944444444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>1023269.561593462</v>
+        <v>1087135.180791271</v>
       </c>
     </row>
     <row r="13">
@@ -15412,28 +15412,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>807.4894756919806</v>
+        <v>859.0913509652069</v>
       </c>
       <c r="AB13" t="n">
-        <v>1104.842724563226</v>
+        <v>1175.446686826123</v>
       </c>
       <c r="AC13" t="n">
-        <v>999.3980855874139</v>
+        <v>1063.263704785223</v>
       </c>
       <c r="AD13" t="n">
-        <v>807489.4756919806</v>
+        <v>859091.3509652069</v>
       </c>
       <c r="AE13" t="n">
-        <v>1104842.724563226</v>
+        <v>1175446.686826123</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.012240859944897e-06</v>
+        <v>3.420676097868926e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.15</v>
       </c>
       <c r="AH13" t="n">
-        <v>999398.0855874139</v>
+        <v>1063263.704785223</v>
       </c>
     </row>
     <row r="14">
@@ -15518,28 +15518,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>795.2920937622573</v>
+        <v>846.8939690354836</v>
       </c>
       <c r="AB14" t="n">
-        <v>1088.153728496466</v>
+        <v>1158.757690759363</v>
       </c>
       <c r="AC14" t="n">
-        <v>984.3018638821121</v>
+        <v>1048.167483079922</v>
       </c>
       <c r="AD14" t="n">
-        <v>795292.0937622573</v>
+        <v>846893.9690354835</v>
       </c>
       <c r="AE14" t="n">
-        <v>1088153.728496466</v>
+        <v>1158757.690759362</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.018711087790379e-06</v>
+        <v>3.431675056382974e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.11666666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>984301.8638821121</v>
+        <v>1048167.483079921</v>
       </c>
     </row>
     <row r="15">
@@ -15624,28 +15624,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>790.0516071262417</v>
+        <v>841.653482399468</v>
       </c>
       <c r="AB15" t="n">
-        <v>1080.983463487116</v>
+        <v>1151.587425750012</v>
       </c>
       <c r="AC15" t="n">
-        <v>977.8159189017244</v>
+        <v>1041.681538099534</v>
       </c>
       <c r="AD15" t="n">
-        <v>790051.6071262417</v>
+        <v>841653.482399468</v>
       </c>
       <c r="AE15" t="n">
-        <v>1080983.463487116</v>
+        <v>1151587.425750013</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.023122606775934e-06</v>
+        <v>3.439174346278916e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.09444444444444</v>
       </c>
       <c r="AH15" t="n">
-        <v>977815.9189017244</v>
+        <v>1041681.538099534</v>
       </c>
     </row>
     <row r="16">
@@ -15730,28 +15730,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>793.2666266953826</v>
+        <v>844.8685019686088</v>
       </c>
       <c r="AB16" t="n">
-        <v>1085.382395098267</v>
+        <v>1155.986357361164</v>
       </c>
       <c r="AC16" t="n">
-        <v>981.7950226538469</v>
+        <v>1045.660641851656</v>
       </c>
       <c r="AD16" t="n">
-        <v>793266.6266953825</v>
+        <v>844868.5019686088</v>
       </c>
       <c r="AE16" t="n">
-        <v>1085382.395098267</v>
+        <v>1155986.357361164</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.023122606775934e-06</v>
+        <v>3.439174346278916e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.09583333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>981795.0226538469</v>
+        <v>1045660.641851656</v>
       </c>
     </row>
   </sheetData>
@@ -16027,28 +16027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1688.724951659353</v>
+        <v>1765.590212057137</v>
       </c>
       <c r="AB2" t="n">
-        <v>2310.587980147158</v>
+        <v>2415.758420479365</v>
       </c>
       <c r="AC2" t="n">
-        <v>2090.06870625251</v>
+        <v>2185.201827367051</v>
       </c>
       <c r="AD2" t="n">
-        <v>1688724.951659353</v>
+        <v>1765590.212057137</v>
       </c>
       <c r="AE2" t="n">
-        <v>2310587.980147158</v>
+        <v>2415758.420479365</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.297985046943876e-06</v>
+        <v>2.34057419474664e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.02222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2090068.70625251</v>
+        <v>2185201.827367052</v>
       </c>
     </row>
     <row r="3">
@@ -16133,28 +16133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>948.3099950788727</v>
+        <v>1005.873621899776</v>
       </c>
       <c r="AB3" t="n">
-        <v>1297.519571751226</v>
+        <v>1376.28066549557</v>
       </c>
       <c r="AC3" t="n">
-        <v>1173.686124903445</v>
+        <v>1244.930370402718</v>
       </c>
       <c r="AD3" t="n">
-        <v>948309.9950788727</v>
+        <v>1005873.621899776</v>
       </c>
       <c r="AE3" t="n">
-        <v>1297519.571751226</v>
+        <v>1376280.665495571</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.804197624389079e-06</v>
+        <v>3.253395261995545e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.24722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1173686.124903445</v>
+        <v>1244930.370402718</v>
       </c>
     </row>
     <row r="4">
@@ -16239,28 +16239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>796.4667834755784</v>
+        <v>844.5076047898993</v>
       </c>
       <c r="AB4" t="n">
-        <v>1089.760990785884</v>
+        <v>1155.492561919594</v>
       </c>
       <c r="AC4" t="n">
-        <v>985.7557313144354</v>
+        <v>1045.213973553983</v>
       </c>
       <c r="AD4" t="n">
-        <v>796466.7834755784</v>
+        <v>844507.6047898993</v>
       </c>
       <c r="AE4" t="n">
-        <v>1089760.990785884</v>
+        <v>1155492.561919594</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.979828889473775e-06</v>
+        <v>3.570099994315717e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.15972222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>985755.7313144354</v>
+        <v>1045213.973553983</v>
       </c>
     </row>
     <row r="5">
@@ -16345,28 +16345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>716.296868965292</v>
+        <v>773.8604062776443</v>
       </c>
       <c r="AB5" t="n">
-        <v>980.0689769059003</v>
+        <v>1058.829948180696</v>
       </c>
       <c r="AC5" t="n">
-        <v>886.5325692854487</v>
+        <v>957.7767040034958</v>
       </c>
       <c r="AD5" t="n">
-        <v>716296.868965292</v>
+        <v>773860.4062776443</v>
       </c>
       <c r="AE5" t="n">
-        <v>980068.9769059003</v>
+        <v>1058829.948180696</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.070189902669525e-06</v>
+        <v>3.733042284132618e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.67361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>886532.5692854488</v>
+        <v>957776.7040034957</v>
       </c>
     </row>
     <row r="6">
@@ -16451,28 +16451,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>667.674423321928</v>
+        <v>715.6299037816775</v>
       </c>
       <c r="AB6" t="n">
-        <v>913.5416017057394</v>
+        <v>979.1564057172516</v>
       </c>
       <c r="AC6" t="n">
-        <v>826.3544734026337</v>
+        <v>885.707092610243</v>
       </c>
       <c r="AD6" t="n">
-        <v>667674.423321928</v>
+        <v>715629.9037816775</v>
       </c>
       <c r="AE6" t="n">
-        <v>913541.6017057394</v>
+        <v>979156.4057172516</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.126824622207706e-06</v>
+        <v>3.835168085496732e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.38888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>826354.4734026338</v>
+        <v>885707.092610243</v>
       </c>
     </row>
     <row r="7">
@@ -16557,28 +16557,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>642.8535465242476</v>
+        <v>690.809026983997</v>
       </c>
       <c r="AB7" t="n">
-        <v>879.5805830513514</v>
+        <v>945.1953870628635</v>
       </c>
       <c r="AC7" t="n">
-        <v>795.6346467040314</v>
+        <v>854.9872659116406</v>
       </c>
       <c r="AD7" t="n">
-        <v>642853.5465242476</v>
+        <v>690809.026983997</v>
       </c>
       <c r="AE7" t="n">
-        <v>879580.5830513514</v>
+        <v>945195.3870628634</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.151801169869207e-06</v>
+        <v>3.88020671137922e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.26805555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>795634.6467040314</v>
+        <v>854987.2659116406</v>
       </c>
     </row>
     <row r="8">
@@ -16663,28 +16663,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>642.7096872526936</v>
+        <v>690.6651677124429</v>
       </c>
       <c r="AB8" t="n">
-        <v>879.3837484493881</v>
+        <v>944.9985524609002</v>
       </c>
       <c r="AC8" t="n">
-        <v>795.4565977202204</v>
+        <v>854.8092169278297</v>
       </c>
       <c r="AD8" t="n">
-        <v>642709.6872526936</v>
+        <v>690665.1677124429</v>
       </c>
       <c r="AE8" t="n">
-        <v>879383.7484493881</v>
+        <v>944998.5524609002</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.154982895685959e-06</v>
+        <v>3.885944115950238e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.25277777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>795456.5977202205</v>
+        <v>854809.2169278297</v>
       </c>
     </row>
   </sheetData>
@@ -16960,28 +16960,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1146.090580238902</v>
+        <v>1220.01900338014</v>
       </c>
       <c r="AB2" t="n">
-        <v>1568.131693830783</v>
+        <v>1669.28382386447</v>
       </c>
       <c r="AC2" t="n">
-        <v>1418.471405858228</v>
+        <v>1509.969718569405</v>
       </c>
       <c r="AD2" t="n">
-        <v>1146090.580238902</v>
+        <v>1220019.003380141</v>
       </c>
       <c r="AE2" t="n">
-        <v>1568131.693830783</v>
+        <v>1669283.82386447</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.564185583710799e-06</v>
+        <v>2.918270318641806e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.71527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1418471.405858228</v>
+        <v>1509969.718569405</v>
       </c>
     </row>
     <row r="3">
@@ -17066,28 +17066,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>729.1577965603406</v>
+        <v>784.4975273566059</v>
       </c>
       <c r="AB3" t="n">
-        <v>997.6658654255273</v>
+        <v>1073.384126517594</v>
       </c>
       <c r="AC3" t="n">
-        <v>902.4500354621507</v>
+        <v>970.9418519868372</v>
       </c>
       <c r="AD3" t="n">
-        <v>729157.7965603406</v>
+        <v>784497.527356606</v>
       </c>
       <c r="AE3" t="n">
-        <v>997665.8654255273</v>
+        <v>1073384.126517594</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.004490816883762e-06</v>
+        <v>3.739739143372316e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.48194444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>902450.0354621507</v>
+        <v>970941.8519868371</v>
       </c>
     </row>
     <row r="4">
@@ -17172,28 +17172,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>618.1427848260354</v>
+        <v>673.5677669683212</v>
       </c>
       <c r="AB4" t="n">
-        <v>845.7702287339911</v>
+        <v>921.6051344787066</v>
       </c>
       <c r="AC4" t="n">
-        <v>765.0511051495898</v>
+        <v>833.6484339249882</v>
       </c>
       <c r="AD4" t="n">
-        <v>618142.7848260354</v>
+        <v>673567.7669683212</v>
       </c>
       <c r="AE4" t="n">
-        <v>845770.228733991</v>
+        <v>921605.1344787066</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.155291630653952e-06</v>
+        <v>4.021085259482502e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.67916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>765051.1051495898</v>
+        <v>833648.4339249883</v>
       </c>
     </row>
     <row r="5">
@@ -17278,28 +17278,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>579.2653767521952</v>
+        <v>625.4387279035559</v>
       </c>
       <c r="AB5" t="n">
-        <v>792.5764438571681</v>
+        <v>855.7528599269465</v>
       </c>
       <c r="AC5" t="n">
-        <v>716.9340604434647</v>
+        <v>774.0810080322003</v>
       </c>
       <c r="AD5" t="n">
-        <v>579265.3767521952</v>
+        <v>625438.7279035558</v>
       </c>
       <c r="AE5" t="n">
-        <v>792576.4438571681</v>
+        <v>855752.8599269465</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.207160481983699e-06</v>
+        <v>4.117855956562159e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.42777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>716934.0604434647</v>
+        <v>774081.0080322003</v>
       </c>
     </row>
     <row r="6">
@@ -17384,28 +17384,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>581.892774133645</v>
+        <v>628.0661252850057</v>
       </c>
       <c r="AB6" t="n">
-        <v>796.1713648670595</v>
+        <v>859.3477809368379</v>
       </c>
       <c r="AC6" t="n">
-        <v>720.1858872376754</v>
+        <v>777.3328348264108</v>
       </c>
       <c r="AD6" t="n">
-        <v>581892.774133645</v>
+        <v>628066.1252850057</v>
       </c>
       <c r="AE6" t="n">
-        <v>796171.3648670595</v>
+        <v>859347.7809368379</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.209149064143306e-06</v>
+        <v>4.121566015236139e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.41805555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>720185.8872376754</v>
+        <v>777332.8348264109</v>
       </c>
     </row>
   </sheetData>
@@ -32118,28 +32118,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>852.9810043002465</v>
+        <v>915.5781706251032</v>
       </c>
       <c r="AB2" t="n">
-        <v>1167.086240949654</v>
+        <v>1252.734445507398</v>
       </c>
       <c r="AC2" t="n">
-        <v>1055.701168129246</v>
+        <v>1133.175228252008</v>
       </c>
       <c r="AD2" t="n">
-        <v>852981.0043002465</v>
+        <v>915578.1706251032</v>
       </c>
       <c r="AE2" t="n">
-        <v>1167086.240949654</v>
+        <v>1252734.445507398</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.785731349849821e-06</v>
+        <v>3.434027607122143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.33194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1055701.168129246</v>
+        <v>1133175.228252008</v>
       </c>
     </row>
     <row r="3">
@@ -32224,28 +32224,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>572.8407436157551</v>
+        <v>626.5563386401395</v>
       </c>
       <c r="AB3" t="n">
-        <v>783.7859773650805</v>
+        <v>857.2820242422462</v>
       </c>
       <c r="AC3" t="n">
-        <v>708.9825437358847</v>
+        <v>775.4642310514434</v>
       </c>
       <c r="AD3" t="n">
-        <v>572840.7436157551</v>
+        <v>626556.3386401396</v>
       </c>
       <c r="AE3" t="n">
-        <v>783785.9773650805</v>
+        <v>857282.0242422462</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.172636951905216e-06</v>
+        <v>4.178061427730251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.95833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>708982.5437358847</v>
+        <v>775464.2310514435</v>
       </c>
     </row>
     <row r="4">
@@ -32330,28 +32330,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>535.6840411801445</v>
+        <v>589.399636204529</v>
       </c>
       <c r="AB4" t="n">
-        <v>732.9465378546582</v>
+        <v>806.442584731824</v>
       </c>
       <c r="AC4" t="n">
-        <v>662.9951489787356</v>
+        <v>729.4768362942943</v>
       </c>
       <c r="AD4" t="n">
-        <v>535684.0411801445</v>
+        <v>589399.636204529</v>
       </c>
       <c r="AE4" t="n">
-        <v>732946.5378546582</v>
+        <v>806442.584731824</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.238464045919072e-06</v>
+        <v>4.304649370625029e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.63611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>662995.1489787357</v>
+        <v>729476.8362942943</v>
       </c>
     </row>
   </sheetData>
@@ -32627,28 +32627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>461.4873139997885</v>
+        <v>511.8997145004043</v>
       </c>
       <c r="AB2" t="n">
-        <v>631.4273023979119</v>
+        <v>700.4037728009998</v>
       </c>
       <c r="AC2" t="n">
-        <v>571.1647668708393</v>
+        <v>633.5582197477407</v>
       </c>
       <c r="AD2" t="n">
-        <v>461487.3139997884</v>
+        <v>511899.7145004043</v>
       </c>
       <c r="AE2" t="n">
-        <v>631427.3023979119</v>
+        <v>700403.7728009998</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.208076258021457e-06</v>
+        <v>4.554376591312239e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.57222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>571164.7668708393</v>
+        <v>633558.2197477408</v>
       </c>
     </row>
     <row r="3">
@@ -32733,28 +32733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>465.5482612535297</v>
+        <v>515.9606617541456</v>
       </c>
       <c r="AB3" t="n">
-        <v>636.9836695868294</v>
+        <v>705.9601399899173</v>
       </c>
       <c r="AC3" t="n">
-        <v>576.1908421736568</v>
+        <v>638.5842950505582</v>
       </c>
       <c r="AD3" t="n">
-        <v>465548.2612535297</v>
+        <v>515960.6617541455</v>
       </c>
       <c r="AE3" t="n">
-        <v>636983.6695868294</v>
+        <v>705960.1399899173</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.211572087444205e-06</v>
+        <v>4.561587086707201e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.55416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>576190.8421736568</v>
+        <v>638584.2950505583</v>
       </c>
     </row>
   </sheetData>
@@ -33030,28 +33030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2393.036878218569</v>
+        <v>2492.139137920442</v>
       </c>
       <c r="AB2" t="n">
-        <v>3274.258630114909</v>
+        <v>3409.854713922151</v>
       </c>
       <c r="AC2" t="n">
-        <v>2961.767981907466</v>
+        <v>3084.422965786441</v>
       </c>
       <c r="AD2" t="n">
-        <v>2393036.878218569</v>
+        <v>2492139.137920443</v>
       </c>
       <c r="AE2" t="n">
-        <v>3274258.630114908</v>
+        <v>3409854.713922151</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.081242627003537e-06</v>
+        <v>1.899700643028558e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.76527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2961767.981907466</v>
+        <v>3084422.965786441</v>
       </c>
     </row>
     <row r="3">
@@ -33136,28 +33136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1178.19750572449</v>
+        <v>1237.658951054166</v>
       </c>
       <c r="AB3" t="n">
-        <v>1612.061805737749</v>
+        <v>1693.419578491639</v>
       </c>
       <c r="AC3" t="n">
-        <v>1458.208889541092</v>
+        <v>1531.801990649702</v>
       </c>
       <c r="AD3" t="n">
-        <v>1178197.50572449</v>
+        <v>1237658.951054166</v>
       </c>
       <c r="AE3" t="n">
-        <v>1612061.805737749</v>
+        <v>1693419.578491639</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.635789151511969e-06</v>
+        <v>2.874017010962943e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.06527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1458208.889541092</v>
+        <v>1531801.990649702</v>
       </c>
     </row>
     <row r="4">
@@ -33242,28 +33242,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>956.7600084517316</v>
+        <v>1016.221364272856</v>
       </c>
       <c r="AB4" t="n">
-        <v>1309.081252836251</v>
+        <v>1390.438903120593</v>
       </c>
       <c r="AC4" t="n">
-        <v>1184.144375372637</v>
+        <v>1257.73736570002</v>
       </c>
       <c r="AD4" t="n">
-        <v>956760.0084517315</v>
+        <v>1016221.364272856</v>
       </c>
       <c r="AE4" t="n">
-        <v>1309081.252836251</v>
+        <v>1390438.903120593</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.836435285795818e-06</v>
+        <v>3.226544353855961e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.6375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1184144.375372637</v>
+        <v>1257737.36570002</v>
       </c>
     </row>
     <row r="5">
@@ -33348,28 +33348,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>869.607142297873</v>
+        <v>919.1583616573608</v>
       </c>
       <c r="AB5" t="n">
-        <v>1189.834856451448</v>
+        <v>1257.633020824614</v>
       </c>
       <c r="AC5" t="n">
-        <v>1076.27868769543</v>
+        <v>1137.606290416143</v>
       </c>
       <c r="AD5" t="n">
-        <v>869607.142297873</v>
+        <v>919158.3616573608</v>
       </c>
       <c r="AE5" t="n">
-        <v>1189834.856451448</v>
+        <v>1257633.020824614</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.936758352937743e-06</v>
+        <v>3.40280802530247e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.03472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1076278.68769543</v>
+        <v>1137606.290416143</v>
       </c>
     </row>
     <row r="6">
@@ -33454,28 +33454,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>806.1700550092103</v>
+        <v>865.546069975763</v>
       </c>
       <c r="AB6" t="n">
-        <v>1103.037434976327</v>
+        <v>1184.278318138471</v>
       </c>
       <c r="AC6" t="n">
-        <v>997.765090304949</v>
+        <v>1071.252457600393</v>
       </c>
       <c r="AD6" t="n">
-        <v>806170.0550092102</v>
+        <v>865546.069975763</v>
       </c>
       <c r="AE6" t="n">
-        <v>1103037.434976327</v>
+        <v>1184278.318138471</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.998152377154964e-06</v>
+        <v>3.510674903994429e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.69444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>997765.090304949</v>
+        <v>1071252.457600393</v>
       </c>
     </row>
     <row r="7">
@@ -33560,28 +33560,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>763.782537274056</v>
+        <v>813.2484157789723</v>
       </c>
       <c r="AB7" t="n">
-        <v>1045.040963205785</v>
+        <v>1112.722360456753</v>
       </c>
       <c r="AC7" t="n">
-        <v>945.3037204016279</v>
+        <v>1006.525700090402</v>
       </c>
       <c r="AD7" t="n">
-        <v>763782.537274056</v>
+        <v>813248.4157789723</v>
       </c>
       <c r="AE7" t="n">
-        <v>1045040.963205785</v>
+        <v>1112722.360456753</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.043236209474879e-06</v>
+        <v>3.589885418923612e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.45972222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>945303.7204016278</v>
+        <v>1006525.700090402</v>
       </c>
     </row>
     <row r="8">
@@ -33666,28 +33666,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>727.8285241092266</v>
+        <v>777.294402614143</v>
       </c>
       <c r="AB8" t="n">
-        <v>995.8470962145515</v>
+        <v>1063.52849346552</v>
       </c>
       <c r="AC8" t="n">
-        <v>900.8048470320118</v>
+        <v>962.0268267207855</v>
       </c>
       <c r="AD8" t="n">
-        <v>727828.5241092265</v>
+        <v>777294.402614143</v>
       </c>
       <c r="AE8" t="n">
-        <v>995847.0962145515</v>
+        <v>1063528.49346552</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.076472072209013e-06</v>
+        <v>3.648279518666627e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.29166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>900804.8470320118</v>
+        <v>962026.8267207855</v>
       </c>
     </row>
     <row r="9">
@@ -33772,28 +33772,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>703.2006381681604</v>
+        <v>752.6665166730766</v>
       </c>
       <c r="AB9" t="n">
-        <v>962.1501361643385</v>
+        <v>1029.831533415307</v>
       </c>
       <c r="AC9" t="n">
-        <v>870.3238775550107</v>
+        <v>931.5458572437844</v>
       </c>
       <c r="AD9" t="n">
-        <v>703200.6381681603</v>
+        <v>752666.5166730765</v>
       </c>
       <c r="AE9" t="n">
-        <v>962150.1361643386</v>
+        <v>1029831.533415307</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.097859965357368e-06</v>
+        <v>3.685857203223474e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.18611111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>870323.8775550106</v>
+        <v>931545.8572437845</v>
       </c>
     </row>
     <row r="10">
@@ -33878,28 +33878,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>698.7921961020857</v>
+        <v>748.258074607002</v>
       </c>
       <c r="AB10" t="n">
-        <v>956.1183112427974</v>
+        <v>1023.799708493766</v>
       </c>
       <c r="AC10" t="n">
-        <v>864.867721538262</v>
+        <v>926.0897012270357</v>
       </c>
       <c r="AD10" t="n">
-        <v>698792.1961020856</v>
+        <v>748258.074607002</v>
       </c>
       <c r="AE10" t="n">
-        <v>956118.3112427974</v>
+        <v>1023799.708493766</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.101091229789853e-06</v>
+        <v>3.691534407365156e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.17222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>864867.721538262</v>
+        <v>926089.7012270357</v>
       </c>
     </row>
     <row r="11">
@@ -33984,28 +33984,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>701.9280522021998</v>
+        <v>751.3939307071159</v>
       </c>
       <c r="AB11" t="n">
-        <v>960.4089279031807</v>
+        <v>1028.090325154149</v>
       </c>
       <c r="AC11" t="n">
-        <v>868.7488477664965</v>
+        <v>929.9708274552702</v>
       </c>
       <c r="AD11" t="n">
-        <v>701928.0522021997</v>
+        <v>751393.9307071159</v>
       </c>
       <c r="AE11" t="n">
-        <v>960408.9279031807</v>
+        <v>1028090.325154149</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.100937360054973e-06</v>
+        <v>3.691264064310791e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.17222222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>868748.8477664965</v>
+        <v>929970.8274552702</v>
       </c>
     </row>
   </sheetData>
@@ -34281,28 +34281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3860.291802860265</v>
+        <v>3993.559250047096</v>
       </c>
       <c r="AB2" t="n">
-        <v>5281.821548728601</v>
+        <v>5464.16394931446</v>
       </c>
       <c r="AC2" t="n">
-        <v>4777.731913200846</v>
+        <v>4942.671810993951</v>
       </c>
       <c r="AD2" t="n">
-        <v>3860291.802860265</v>
+        <v>3993559.250047096</v>
       </c>
       <c r="AE2" t="n">
-        <v>5281821.548728601</v>
+        <v>5464163.94931446</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.359675317464773e-07</v>
+        <v>1.42941131706216e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.63194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>4777731.913200846</v>
+        <v>4942671.810993951</v>
       </c>
     </row>
     <row r="3">
@@ -34387,28 +34387,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1511.388758424201</v>
+        <v>1583.10885448509</v>
       </c>
       <c r="AB3" t="n">
-        <v>2067.948777042133</v>
+        <v>2166.079376539971</v>
       </c>
       <c r="AC3" t="n">
-        <v>1870.586648145569</v>
+        <v>1959.351800954494</v>
       </c>
       <c r="AD3" t="n">
-        <v>1511388.758424201</v>
+        <v>1583108.85448509</v>
       </c>
       <c r="AE3" t="n">
-        <v>2067948.777042133</v>
+        <v>2166079.376539971</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.446707202421139e-06</v>
+        <v>2.473708091623891e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.23472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1870586.648145569</v>
+        <v>1959351.800954494</v>
       </c>
     </row>
     <row r="4">
@@ -34493,28 +34493,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1188.976932282627</v>
+        <v>1250.4391215711</v>
       </c>
       <c r="AB4" t="n">
-        <v>1626.810692709328</v>
+        <v>1710.905971614239</v>
       </c>
       <c r="AC4" t="n">
-        <v>1471.550163440297</v>
+        <v>1547.619506954988</v>
       </c>
       <c r="AD4" t="n">
-        <v>1188976.932282627</v>
+        <v>1250439.1215711</v>
       </c>
       <c r="AE4" t="n">
-        <v>1626810.692709328</v>
+        <v>1710905.971614239</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.669266135580319e-06</v>
+        <v>2.854259064825434e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.33611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1471550.163440297</v>
+        <v>1547619.506954988</v>
       </c>
     </row>
     <row r="5">
@@ -34599,28 +34599,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1054.357697526057</v>
+        <v>1115.90513816055</v>
       </c>
       <c r="AB5" t="n">
-        <v>1442.618716733904</v>
+        <v>1526.830640291463</v>
       </c>
       <c r="AC5" t="n">
-        <v>1304.937211136905</v>
+        <v>1381.112066902308</v>
       </c>
       <c r="AD5" t="n">
-        <v>1054357.697526057</v>
+        <v>1115905.13816055</v>
       </c>
       <c r="AE5" t="n">
-        <v>1442618.716733904</v>
+        <v>1526830.640291463</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.787736880146732e-06</v>
+        <v>3.056830835370426e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.51944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1304937.211136905</v>
+        <v>1381112.066902308</v>
       </c>
     </row>
     <row r="6">
@@ -34705,28 +34705,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>985.1033493158901</v>
+        <v>1036.392972686519</v>
       </c>
       <c r="AB6" t="n">
-        <v>1347.861862226542</v>
+        <v>1418.038587660724</v>
       </c>
       <c r="AC6" t="n">
-        <v>1219.223817831645</v>
+        <v>1282.702975084041</v>
       </c>
       <c r="AD6" t="n">
-        <v>985103.3493158901</v>
+        <v>1036392.972686519</v>
       </c>
       <c r="AE6" t="n">
-        <v>1347861.862226542</v>
+        <v>1418038.587660724</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.859056564923259e-06</v>
+        <v>3.178779548301767e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.07777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1219223.817831645</v>
+        <v>1282702.975084041</v>
       </c>
     </row>
     <row r="7">
@@ -34811,28 +34811,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>927.2467506392234</v>
+        <v>988.7088504191451</v>
       </c>
       <c r="AB7" t="n">
-        <v>1268.699911464136</v>
+        <v>1352.795067899498</v>
       </c>
       <c r="AC7" t="n">
-        <v>1147.616972545507</v>
+        <v>1223.686205278972</v>
       </c>
       <c r="AD7" t="n">
-        <v>927246.7506392234</v>
+        <v>988708.8504191451</v>
       </c>
       <c r="AE7" t="n">
-        <v>1268699.911464136</v>
+        <v>1352795.067899498</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.907986909988235e-06</v>
+        <v>3.262444985448008e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.79305555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>1147616.972545507</v>
+        <v>1223686.205278972</v>
       </c>
     </row>
     <row r="8">
@@ -34917,28 +34917,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>889.9781164192652</v>
+        <v>951.4402161991871</v>
       </c>
       <c r="AB8" t="n">
-        <v>1217.707321948287</v>
+        <v>1301.80247838365</v>
       </c>
       <c r="AC8" t="n">
-        <v>1101.491044204503</v>
+        <v>1177.560276937967</v>
       </c>
       <c r="AD8" t="n">
-        <v>889978.1164192653</v>
+        <v>951440.2161991871</v>
       </c>
       <c r="AE8" t="n">
-        <v>1217707.321948288</v>
+        <v>1301802.47838365</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.94550017453805e-06</v>
+        <v>3.326588487260128e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.58472222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1101491.044204503</v>
+        <v>1177560.276937967</v>
       </c>
     </row>
     <row r="9">
@@ -35023,28 +35023,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>860.0209910686877</v>
+        <v>911.2252735847451</v>
       </c>
       <c r="AB9" t="n">
-        <v>1176.718661428532</v>
+        <v>1246.778619740516</v>
       </c>
       <c r="AC9" t="n">
-        <v>1064.414283916806</v>
+        <v>1127.787818137263</v>
       </c>
       <c r="AD9" t="n">
-        <v>860020.9910686878</v>
+        <v>911225.2735847451</v>
       </c>
       <c r="AE9" t="n">
-        <v>1176718.661428532</v>
+        <v>1246778.619740516</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.972782548756098e-06</v>
+        <v>3.373238306759851e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.43888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1064414.283916806</v>
+        <v>1127787.818137263</v>
       </c>
     </row>
     <row r="10">
@@ -35129,28 +35129,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>833.9120271504426</v>
+        <v>885.1163096664999</v>
       </c>
       <c r="AB10" t="n">
-        <v>1140.995225149394</v>
+        <v>1211.055183461378</v>
       </c>
       <c r="AC10" t="n">
-        <v>1032.100242257992</v>
+        <v>1095.473776478449</v>
       </c>
       <c r="AD10" t="n">
-        <v>833912.0271504426</v>
+        <v>885116.3096664998</v>
       </c>
       <c r="AE10" t="n">
-        <v>1140995.225149394</v>
+        <v>1211055.183461378</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.994875340921799e-06</v>
+        <v>3.411014519289517e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.32222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1032100.242257992</v>
+        <v>1095473.776478449</v>
       </c>
     </row>
     <row r="11">
@@ -35235,28 +35235,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>813.4138653234438</v>
+        <v>864.618147839501</v>
       </c>
       <c r="AB11" t="n">
-        <v>1112.948735822618</v>
+        <v>1183.008694134602</v>
       </c>
       <c r="AC11" t="n">
-        <v>1006.730470509068</v>
+        <v>1070.104004729525</v>
       </c>
       <c r="AD11" t="n">
-        <v>813413.8653234438</v>
+        <v>864618.147839501</v>
       </c>
       <c r="AE11" t="n">
-        <v>1112948.735822618</v>
+        <v>1183008.694134602</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.010295813305913e-06</v>
+        <v>3.437381808571969e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.24444444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>1006730.470509068</v>
+        <v>1070104.004729525</v>
       </c>
     </row>
     <row r="12">
@@ -35341,28 +35341,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>790.1298988677618</v>
+        <v>841.334181383819</v>
       </c>
       <c r="AB12" t="n">
-        <v>1081.090585701851</v>
+        <v>1151.150544013835</v>
       </c>
       <c r="AC12" t="n">
-        <v>977.9128175226325</v>
+        <v>1041.286351743089</v>
       </c>
       <c r="AD12" t="n">
-        <v>790129.8988677617</v>
+        <v>841334.181383819</v>
       </c>
       <c r="AE12" t="n">
-        <v>1081090.585701851</v>
+        <v>1151150.544013835</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.026012833235875e-06</v>
+        <v>3.464256161109853e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.16388888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>977912.8175226325</v>
+        <v>1041286.35174309</v>
       </c>
     </row>
     <row r="13">
@@ -35447,28 +35447,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>776.3822589516991</v>
+        <v>827.5865414677565</v>
       </c>
       <c r="AB13" t="n">
-        <v>1062.280458265626</v>
+        <v>1132.34041657761</v>
       </c>
       <c r="AC13" t="n">
-        <v>960.8979022487412</v>
+        <v>1024.271436469198</v>
       </c>
       <c r="AD13" t="n">
-        <v>776382.2589516991</v>
+        <v>827586.5414677565</v>
       </c>
       <c r="AE13" t="n">
-        <v>1062280.458265626</v>
+        <v>1132340.41657761</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.034464438292553e-06</v>
+        <v>3.478707463889659e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.12222222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>960897.9022487411</v>
+        <v>1024271.436469198</v>
       </c>
     </row>
     <row r="14">
@@ -35553,28 +35553,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>775.8780974858207</v>
+        <v>827.0823800018781</v>
       </c>
       <c r="AB14" t="n">
-        <v>1061.590642305977</v>
+        <v>1131.650600617961</v>
       </c>
       <c r="AC14" t="n">
-        <v>960.2739213561183</v>
+        <v>1023.647455576575</v>
       </c>
       <c r="AD14" t="n">
-        <v>775878.0974858208</v>
+        <v>827082.380001878</v>
       </c>
       <c r="AE14" t="n">
-        <v>1061590.642305977</v>
+        <v>1131650.600617961</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.035947176021795e-06</v>
+        <v>3.481242780166818e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.11527777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>960273.9213561183</v>
+        <v>1023647.455576575</v>
       </c>
     </row>
     <row r="15">
@@ -35659,28 +35659,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>778.7494954587946</v>
+        <v>829.953777974852</v>
       </c>
       <c r="AB15" t="n">
-        <v>1065.519415689738</v>
+        <v>1135.579374001722</v>
       </c>
       <c r="AC15" t="n">
-        <v>963.8277381222014</v>
+        <v>1027.201272342658</v>
       </c>
       <c r="AD15" t="n">
-        <v>778749.4954587946</v>
+        <v>829953.777974852</v>
       </c>
       <c r="AE15" t="n">
-        <v>1065519.415689738</v>
+        <v>1135579.374001722</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.035650628475946e-06</v>
+        <v>3.480735716911386e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.11666666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>963827.7381222014</v>
+        <v>1027201.272342658</v>
       </c>
     </row>
   </sheetData>
@@ -35956,28 +35956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>432.5236391670283</v>
+        <v>489.4037975796874</v>
       </c>
       <c r="AB2" t="n">
-        <v>591.7979247045776</v>
+        <v>669.6238668202642</v>
       </c>
       <c r="AC2" t="n">
-        <v>535.3175613643758</v>
+        <v>605.7159047939371</v>
       </c>
       <c r="AD2" t="n">
-        <v>432523.6391670282</v>
+        <v>489403.7975796874</v>
       </c>
       <c r="AE2" t="n">
-        <v>591797.9247045775</v>
+        <v>669623.8668202641</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.107376142676143e-06</v>
+        <v>4.517077711104914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.55694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>535317.5613643759</v>
+        <v>605715.9047939371</v>
       </c>
     </row>
   </sheetData>
@@ -36253,28 +36253,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1312.806467350911</v>
+        <v>1387.661826950954</v>
       </c>
       <c r="AB2" t="n">
-        <v>1796.239725563284</v>
+        <v>1898.660130953457</v>
       </c>
       <c r="AC2" t="n">
-        <v>1624.809127193811</v>
+        <v>1717.454672841489</v>
       </c>
       <c r="AD2" t="n">
-        <v>1312806.467350911</v>
+        <v>1387661.826950954</v>
       </c>
       <c r="AE2" t="n">
-        <v>1796239.725563284</v>
+        <v>1898660.130953457</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.468228004244835e-06</v>
+        <v>2.705111043971538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.44722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1624809.127193812</v>
+        <v>1717454.672841489</v>
       </c>
     </row>
     <row r="3">
@@ -36359,28 +36359,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>799.4537241350001</v>
+        <v>855.7231879854767</v>
       </c>
       <c r="AB3" t="n">
-        <v>1093.847854770627</v>
+        <v>1170.838217644392</v>
       </c>
       <c r="AC3" t="n">
-        <v>989.4525507364239</v>
+        <v>1059.09506143417</v>
       </c>
       <c r="AD3" t="n">
-        <v>799453.7241350001</v>
+        <v>855723.1879854767</v>
       </c>
       <c r="AE3" t="n">
-        <v>1093847.854770627</v>
+        <v>1170838.217644392</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.932162578826036e-06</v>
+        <v>3.559879198339587e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.73888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>989452.5507364238</v>
+        <v>1059095.06143417</v>
       </c>
     </row>
     <row r="4">
@@ -36465,28 +36465,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>676.2118001044067</v>
+        <v>732.3959231003114</v>
       </c>
       <c r="AB4" t="n">
-        <v>925.2228172620083</v>
+        <v>1002.096413013576</v>
       </c>
       <c r="AC4" t="n">
-        <v>836.9208501409013</v>
+        <v>906.4577378067089</v>
       </c>
       <c r="AD4" t="n">
-        <v>676211.8001044068</v>
+        <v>732395.9231003114</v>
       </c>
       <c r="AE4" t="n">
-        <v>925222.8172620083</v>
+        <v>1002096.413013576</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.092522928082896e-06</v>
+        <v>3.855332323151072e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.83888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>836920.8501409013</v>
+        <v>906457.7378067089</v>
       </c>
     </row>
     <row r="5">
@@ -36571,28 +36571,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>613.3702235555977</v>
+        <v>660.176192084974</v>
       </c>
       <c r="AB5" t="n">
-        <v>839.2401998532349</v>
+        <v>903.2821909287235</v>
       </c>
       <c r="AC5" t="n">
-        <v>759.1442930602597</v>
+        <v>817.0742063910028</v>
       </c>
       <c r="AD5" t="n">
-        <v>613370.2235555977</v>
+        <v>660176.192084974</v>
       </c>
       <c r="AE5" t="n">
-        <v>839240.1998532349</v>
+        <v>903282.1909287234</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.174989299136577e-06</v>
+        <v>4.007271048232333e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.42777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>759144.2930602597</v>
+        <v>817074.2063910028</v>
       </c>
     </row>
     <row r="6">
@@ -36677,28 +36677,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>601.9562570357016</v>
+        <v>648.7622255650779</v>
       </c>
       <c r="AB6" t="n">
-        <v>823.6231073120489</v>
+        <v>887.6650983875376</v>
       </c>
       <c r="AC6" t="n">
-        <v>745.0176739124774</v>
+        <v>802.9475872432205</v>
       </c>
       <c r="AD6" t="n">
-        <v>601956.2570357015</v>
+        <v>648762.2255650779</v>
       </c>
       <c r="AE6" t="n">
-        <v>823623.1073120489</v>
+        <v>887665.0983875375</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.190339475134687e-06</v>
+        <v>4.035552711910825e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.35416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>745017.6739124774</v>
+        <v>802947.5872432205</v>
       </c>
     </row>
     <row r="7">
@@ -36783,28 +36783,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>605.5785492958823</v>
+        <v>652.3845178252589</v>
       </c>
       <c r="AB7" t="n">
-        <v>828.5792873866843</v>
+        <v>892.6212784621731</v>
       </c>
       <c r="AC7" t="n">
-        <v>749.5008431168324</v>
+        <v>807.4307564475753</v>
       </c>
       <c r="AD7" t="n">
-        <v>605578.5492958823</v>
+        <v>652384.5178252589</v>
       </c>
       <c r="AE7" t="n">
-        <v>828579.2873866843</v>
+        <v>892621.2784621731</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.190339475134687e-06</v>
+        <v>4.035552711910825e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.35555555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>749500.8431168323</v>
+        <v>807430.7564475753</v>
       </c>
     </row>
   </sheetData>
@@ -37080,28 +37080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1891.126916042508</v>
+        <v>1988.093876742389</v>
       </c>
       <c r="AB2" t="n">
-        <v>2587.523277160657</v>
+        <v>2720.197750670622</v>
       </c>
       <c r="AC2" t="n">
-        <v>2340.573687200171</v>
+        <v>2460.585895168138</v>
       </c>
       <c r="AD2" t="n">
-        <v>1891126.916042508</v>
+        <v>1988093.876742389</v>
       </c>
       <c r="AE2" t="n">
-        <v>2587523.277160657</v>
+        <v>2720197.750670622</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.222248894524516e-06</v>
+        <v>2.183458452445291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.86666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2340573.687200171</v>
+        <v>2460585.895168138</v>
       </c>
     </row>
     <row r="3">
@@ -37186,28 +37186,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1020.821581356386</v>
+        <v>1079.189507656372</v>
       </c>
       <c r="AB3" t="n">
-        <v>1396.733123081534</v>
+        <v>1476.594694856347</v>
       </c>
       <c r="AC3" t="n">
-        <v>1263.430874141882</v>
+        <v>1335.670569592927</v>
       </c>
       <c r="AD3" t="n">
-        <v>1020821.581356386</v>
+        <v>1079189.507656372</v>
       </c>
       <c r="AE3" t="n">
-        <v>1396733.123081534</v>
+        <v>1476594.694856347</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.744228098257651e-06</v>
+        <v>3.115936206769752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.51944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1263430.874141882</v>
+        <v>1335670.569592927</v>
       </c>
     </row>
     <row r="4">
@@ -37292,28 +37292,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>851.7811542231846</v>
+        <v>909.8931474680064</v>
       </c>
       <c r="AB4" t="n">
-        <v>1165.444553140569</v>
+        <v>1244.955946018338</v>
       </c>
       <c r="AC4" t="n">
-        <v>1054.216160700536</v>
+        <v>1126.139097836991</v>
       </c>
       <c r="AD4" t="n">
-        <v>851781.1542231846</v>
+        <v>909893.1474680065</v>
       </c>
       <c r="AE4" t="n">
-        <v>1165444.553140569</v>
+        <v>1244955.946018338</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.927549710171155e-06</v>
+        <v>3.443426887957199e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.32777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1054216.160700536</v>
+        <v>1126139.097836991</v>
       </c>
     </row>
     <row r="5">
@@ -37398,28 +37398,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>764.2074578567881</v>
+        <v>822.4047024476308</v>
       </c>
       <c r="AB5" t="n">
-        <v>1045.622358293252</v>
+        <v>1125.25039582367</v>
       </c>
       <c r="AC5" t="n">
-        <v>945.8296279579403</v>
+        <v>1017.858077345108</v>
       </c>
       <c r="AD5" t="n">
-        <v>764207.4578567881</v>
+        <v>822404.7024476308</v>
       </c>
       <c r="AE5" t="n">
-        <v>1045622.358293252</v>
+        <v>1125250.395823671</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.024713308938348e-06</v>
+        <v>3.617002566322416e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.78472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>945829.6279579402</v>
+        <v>1017858.077345108</v>
       </c>
     </row>
     <row r="6">
@@ -37504,28 +37504,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>713.3018572042919</v>
+        <v>761.7854270627831</v>
       </c>
       <c r="AB6" t="n">
-        <v>975.9710696839064</v>
+        <v>1042.308428908437</v>
       </c>
       <c r="AC6" t="n">
-        <v>882.8257605772728</v>
+        <v>942.8319753424829</v>
       </c>
       <c r="AD6" t="n">
-        <v>713301.8572042919</v>
+        <v>761785.4270627832</v>
       </c>
       <c r="AE6" t="n">
-        <v>975971.0696839064</v>
+        <v>1042308.428908437</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.082256799470374e-06</v>
+        <v>3.719799812732883e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.48611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>882825.7605772729</v>
+        <v>942831.9753424829</v>
       </c>
     </row>
     <row r="7">
@@ -37610,28 +37610,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>674.8759076641145</v>
+        <v>723.3594775226057</v>
       </c>
       <c r="AB7" t="n">
-        <v>923.3949902897857</v>
+        <v>989.7323495143164</v>
       </c>
       <c r="AC7" t="n">
-        <v>835.2674684095361</v>
+        <v>895.2736831747462</v>
       </c>
       <c r="AD7" t="n">
-        <v>674875.9076641145</v>
+        <v>723359.4775226058</v>
       </c>
       <c r="AE7" t="n">
-        <v>923394.9902897857</v>
+        <v>989732.3495143164</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.121562462402085e-06</v>
+        <v>3.790016511100688e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.29305555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>835267.4684095362</v>
+        <v>895273.6831747462</v>
       </c>
     </row>
     <row r="8">
@@ -37716,28 +37716,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>660.3192492465175</v>
+        <v>708.802819105009</v>
       </c>
       <c r="AB8" t="n">
-        <v>903.4779280483839</v>
+        <v>969.8152872729147</v>
       </c>
       <c r="AC8" t="n">
-        <v>817.2512626346814</v>
+        <v>877.2574773998915</v>
       </c>
       <c r="AD8" t="n">
-        <v>660319.2492465175</v>
+        <v>708802.819105009</v>
       </c>
       <c r="AE8" t="n">
-        <v>903477.9280483839</v>
+        <v>969815.2872729147</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.135869723709229e-06</v>
+        <v>3.81557538930657e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.22361111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>817251.2626346814</v>
+        <v>877257.4773998915</v>
       </c>
     </row>
     <row r="9">
@@ -37822,28 +37822,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>663.1174166140893</v>
+        <v>711.6009864725805</v>
       </c>
       <c r="AB9" t="n">
-        <v>907.3065040871272</v>
+        <v>973.6438633116583</v>
       </c>
       <c r="AC9" t="n">
-        <v>820.7144447497275</v>
+        <v>880.7206595149376</v>
       </c>
       <c r="AD9" t="n">
-        <v>663117.4166140893</v>
+        <v>711600.9864725806</v>
       </c>
       <c r="AE9" t="n">
-        <v>907306.5040871273</v>
+        <v>973643.8633116583</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.136026946360956e-06</v>
+        <v>3.815856256100041e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.22222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>820714.4447497275</v>
+        <v>880720.6595149375</v>
       </c>
     </row>
   </sheetData>
